--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_5_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_5_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>608648.4418714377</v>
+        <v>689103.2582321244</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680573.5606250045</v>
+        <v>680573.560625005</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15081736.51669623</v>
+        <v>15081736.51669622</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="X2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V2" t="n">
+      <c r="Y2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>23.17871577922038</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -800,7 +800,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>104.7383832473596</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -983,22 +983,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>70.73885857389301</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>49.32998539960106</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1104,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,13 +1135,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>241.0142888776591</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1177,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,25 +1211,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1262,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>69.05674881342119</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>152.4532992575361</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="G11" t="n">
-        <v>243.2386572690347</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>38.19053515138899</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
     </row>
     <row r="12">
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>28.80700501538426</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U12" t="n">
         <v>225.9364262421938</v>
@@ -1511,13 +1511,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>207.3370988088327</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1590,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
         <v>175.1311939478779</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1618,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>226.2350166920998</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>141.0252816852793</v>
       </c>
       <c r="S14" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>222.4795457699687</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>155.8903435161421</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1688,10 +1688,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1736,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>109.7228920599219</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1748,10 +1748,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>8.960332327964021</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1852,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="F17" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="I17" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,25 +1891,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V17" t="n">
-        <v>21.18689457445403</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>268.0607811825787</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1922,16 +1922,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>69.31585159621662</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1979,10 +1979,10 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>175.7569470849741</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>175.1311939478779</v>
+        <v>175.1311939478778</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2098,10 +2098,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="I20" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,10 +2128,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>243.6664403444227</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>276.1565137023555</v>
+        <v>243.2386572690345</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2162,16 +2162,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2210,22 +2210,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>49.47185956333396</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>199.8611009721718</v>
+        <v>88.21024760771066</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2298,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>175.1311939478778</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>234.7011257271757</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>206.0058540195413</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>414.3670737191223</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>329.8924352648517</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2377,13 +2377,13 @@
         <v>251.2707998041555</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -2411,10 +2411,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.8428928972591</v>
       </c>
       <c r="H24" t="n">
-        <v>107.4004677732277</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>69.07521525435415</v>
+        <v>56.08643970648899</v>
       </c>
       <c r="S24" t="n">
-        <v>162.3842949358346</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>198.1468615877626</v>
@@ -2456,10 +2456,10 @@
         <v>225.9084462740043</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>165.8564259623604</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -2481,16 +2481,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>17.82860505273975</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>21.02303004802086</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2560,22 +2560,22 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>39.18439264290361</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>414.3670737191223</v>
       </c>
       <c r="H26" t="n">
-        <v>329.8924352648517</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>174.4037110746249</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,13 +2608,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>218.9999812970856</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.2707998041555</v>
       </c>
       <c r="V26" t="n">
-        <v>45.52275635824368</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2636,16 +2636,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>105.1680923306881</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>136.8428928972591</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>69.07521525435415</v>
       </c>
       <c r="S27" t="n">
         <v>162.3842949358346</v>
@@ -2693,13 +2693,13 @@
         <v>225.9084462740043</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>103.4935751884174</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>166.4440780709521</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>200.8294330837151</v>
       </c>
     </row>
     <row r="29">
@@ -2797,22 +2797,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>250.5946873282737</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>414.3670737191223</v>
       </c>
       <c r="H29" t="n">
-        <v>329.8924352648517</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>117.2292374094144</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>91.0942270148646</v>
+        <v>91.09422701486459</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>187.6986308346051</v>
       </c>
       <c r="T29" t="n">
         <v>218.9999812970856</v>
@@ -2851,7 +2851,7 @@
         <v>251.2707998041555</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2870,13 +2870,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>25.04885898989304</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>109.7391475867613</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -2885,7 +2885,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>136.8428928972591</v>
       </c>
       <c r="H30" t="n">
         <v>107.4004677732277</v>
@@ -2936,7 +2936,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>39.82642967143531</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>51.01734149371097</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>236.2648191880775</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>176.7685673889081</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3037,13 +3037,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>283.1697524276309</v>
       </c>
       <c r="G32" t="n">
-        <v>414.3670737191223</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>187.6986308346051</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>218.9999812970856</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.2707998041555</v>
@@ -3091,13 +3091,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,28 +3107,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>141.4627134431539</v>
+        <v>135.0368887787526</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>107.4004677732277</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>72.16022720352242</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>69.07521525435415</v>
       </c>
       <c r="S33" t="n">
         <v>162.3842949358346</v>
@@ -3176,7 +3176,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3271,13 +3271,13 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>68.49319871055745</v>
       </c>
       <c r="E35" t="n">
-        <v>218.3847806838957</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>414.3670737191223</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>174.4037110746249</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>91.0942270148646</v>
+        <v>91.09422701486459</v>
       </c>
       <c r="S35" t="n">
         <v>187.6986308346051</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3347,22 +3347,22 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>68.49175090296829</v>
       </c>
       <c r="E36" t="n">
-        <v>144.6563049075357</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>136.8428928972591</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>107.4004677732277</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>69.07521525435415</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3429,22 +3429,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.670940136553</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>12.49659271983035</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2961362709901</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>341.6889143431388</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3520,10 +3520,10 @@
         <v>414.3670737191223</v>
       </c>
       <c r="H38" t="n">
-        <v>329.8924352648517</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>156.1304603032507</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>187.6986308346051</v>
       </c>
       <c r="T38" t="n">
         <v>218.9999812970856</v>
@@ -3562,7 +3562,7 @@
         <v>251.2707998041555</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3581,13 +3581,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>163.5461110188848</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -3596,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>136.8428928972591</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3638,10 +3638,10 @@
         <v>198.1468615877626</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9084462740043</v>
+        <v>206.4056549382803</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -3650,7 +3650,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>166.4440780709521</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>15.08888695494627</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>142.8287537878153</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3748,19 +3748,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>47.92295354370989</v>
       </c>
       <c r="F41" t="n">
-        <v>298.2401757818193</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>414.3670737191223</v>
       </c>
       <c r="H41" t="n">
-        <v>329.8924352648517</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>174.4037110746249</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>187.6986308346051</v>
       </c>
       <c r="T41" t="n">
-        <v>218.9999812970856</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2707998041555</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3818,19 +3818,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>8.907391761462938</v>
       </c>
       <c r="F42" t="n">
-        <v>74.66706624141661</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>136.8428928972591</v>
@@ -3839,7 +3839,7 @@
         <v>107.4004677732277</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>72.16022720352242</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3906,16 +3906,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.571272790944</v>
+        <v>7.948478500143486</v>
       </c>
       <c r="H43" t="n">
-        <v>138.9618409700299</v>
+        <v>158.4955995708086</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3994,10 +3994,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>63.01071541968834</v>
       </c>
       <c r="I44" t="n">
-        <v>174.4037110746249</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>91.09422701486459</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>187.6986308346051</v>
@@ -4033,19 +4033,19 @@
         <v>218.9999812970856</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2707998041555</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>325.1140396563089</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4055,19 +4055,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>55.28369476054847</v>
+        <v>143.3534977010504</v>
       </c>
       <c r="G45" t="n">
         <v>136.8428928972591</v>
@@ -4112,7 +4112,7 @@
         <v>198.1468615877626</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9084462740043</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4440780709521</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>166.4440780709521</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>517.4848137278872</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>274.0360370837871</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>30.58726043968704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>30.58726043968704</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X2" t="n">
-        <v>30.58726043968704</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y2" t="n">
-        <v>30.58726043968704</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>42.69398733164745</v>
       </c>
       <c r="I3" t="n">
         <v>19.28114311021272</v>
@@ -4412,49 +4412,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>360.2295980564601</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V3" t="n">
-        <v>125.0774898247174</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W3" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X3" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0631229240681</v>
       </c>
     </row>
     <row r="4">
@@ -4521,7 +4521,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
         <v>19.28114311021272</v>
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.28114311021272</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W5" t="n">
-        <v>749.627473042513</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X5" t="n">
-        <v>506.1786963984129</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="Y5" t="n">
-        <v>262.7299197543128</v>
+        <v>601.5428246748836</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4652,46 +4652,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>892.6037630117544</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>892.6037630117544</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>690.4171683705204</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>462.1935501069094</v>
+        <v>813.0593579831168</v>
       </c>
       <c r="V6" t="n">
-        <v>227.0414418751666</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="W6" t="n">
-        <v>227.0414418751666</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="X6" t="n">
-        <v>227.0414418751666</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>577.9072497513741</v>
       </c>
     </row>
     <row r="7">
@@ -4752,16 +4752,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
         <v>19.28114311021272</v>
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C8" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D8" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E8" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F8" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W8" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X8" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y8" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>726.0875267598396</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C9" t="n">
-        <v>726.0875267598396</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>577.1531170985884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>417.9156620931329</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
         <v>19.28114311021272</v>
@@ -4886,13 +4886,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>383.2428491569326</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N9" t="n">
         <v>542.809531908403</v>
@@ -4910,25 +4910,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>894.3028637799077</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U9" t="n">
-        <v>894.3028637799077</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V9" t="n">
-        <v>894.3028637799077</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W9" t="n">
-        <v>894.3028637799077</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="X9" t="n">
-        <v>894.3028637799077</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y9" t="n">
-        <v>894.3028637799077</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="10">
@@ -4989,16 +4989,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
         <v>19.28114311021272</v>
@@ -5017,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>546.7341079359765</v>
+        <v>787.1037832399832</v>
       </c>
       <c r="C11" t="n">
-        <v>546.7341079359765</v>
+        <v>787.1037832399832</v>
       </c>
       <c r="D11" t="n">
-        <v>546.7341079359765</v>
+        <v>787.1037832399832</v>
       </c>
       <c r="E11" t="n">
-        <v>546.7341079359765</v>
+        <v>787.1037832399832</v>
       </c>
       <c r="F11" t="n">
-        <v>267.7881344992538</v>
+        <v>508.1578098032605</v>
       </c>
       <c r="G11" t="n">
-        <v>22.09252109618843</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="H11" t="n">
-        <v>22.09252109618843</v>
+        <v>229.2118363665377</v>
       </c>
       <c r="I11" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J11" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618846</v>
       </c>
       <c r="K11" t="n">
         <v>142.8373253438683</v>
@@ -5056,7 +5056,7 @@
         <v>817.0829279823542</v>
       </c>
       <c r="O11" t="n">
-        <v>989.7620250901064</v>
+        <v>989.7620250901066</v>
       </c>
       <c r="P11" t="n">
         <v>1099.465256491931</v>
@@ -5080,13 +5080,13 @@
         <v>1104.626054809422</v>
       </c>
       <c r="W11" t="n">
-        <v>1104.626054809422</v>
+        <v>1066.049756676706</v>
       </c>
       <c r="X11" t="n">
-        <v>1104.626054809422</v>
+        <v>1066.049756676706</v>
       </c>
       <c r="Y11" t="n">
-        <v>825.6800813726991</v>
+        <v>787.1037832399832</v>
       </c>
     </row>
     <row r="12">
@@ -5096,46 +5096,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>196.5455503773155</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C12" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D12" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E12" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F12" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G12" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H12" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I12" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J12" t="n">
-        <v>22.09252109618843</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="K12" t="n">
-        <v>22.09252109618843</v>
+        <v>165.799003153448</v>
       </c>
       <c r="L12" t="n">
-        <v>268.2479876888894</v>
+        <v>411.954469746149</v>
       </c>
       <c r="M12" t="n">
-        <v>541.6429362542212</v>
+        <v>411.954469746149</v>
       </c>
       <c r="N12" t="n">
-        <v>759.2151904085659</v>
+        <v>562.3310704112777</v>
       </c>
       <c r="O12" t="n">
-        <v>1025.71200399185</v>
+        <v>828.8278839945615</v>
       </c>
       <c r="P12" t="n">
         <v>1025.71200399185</v>
@@ -5150,22 +5150,22 @@
         <v>1104.626054809422</v>
       </c>
       <c r="T12" t="n">
-        <v>1075.528069945397</v>
+        <v>902.7461548375312</v>
       </c>
       <c r="U12" t="n">
-        <v>847.3094575795449</v>
+        <v>674.5275424716789</v>
       </c>
       <c r="V12" t="n">
-        <v>612.1573493478022</v>
+        <v>439.3754342399362</v>
       </c>
       <c r="W12" t="n">
-        <v>612.1573493478022</v>
+        <v>229.9440213017213</v>
       </c>
       <c r="X12" t="n">
-        <v>404.3058491422694</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="Y12" t="n">
-        <v>196.5455503773155</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C13" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D13" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E13" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F13" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G13" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H13" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I13" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J13" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K13" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L13" t="n">
-        <v>58.70189726492714</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M13" t="n">
-        <v>107.6904745160686</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N13" t="n">
         <v>160.9488293168851</v>
       </c>
       <c r="O13" t="n">
-        <v>194.1252445754622</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P13" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q13" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R13" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S13" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T13" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U13" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V13" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W13" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="X13" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Y13" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="14">
@@ -5254,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>529.5587134138201</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="C14" t="n">
-        <v>529.5587134138201</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="D14" t="n">
-        <v>529.5587134138201</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="E14" t="n">
-        <v>529.5587134138201</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="F14" t="n">
-        <v>301.0384945329112</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="G14" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H14" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I14" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J14" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K14" t="n">
         <v>142.8373253438683</v>
       </c>
       <c r="L14" t="n">
-        <v>344.9085595412869</v>
+        <v>344.9085595412866</v>
       </c>
       <c r="M14" t="n">
-        <v>586.3582880173957</v>
+        <v>586.3582880173955</v>
       </c>
       <c r="N14" t="n">
-        <v>817.0829279823544</v>
+        <v>817.082927982354</v>
       </c>
       <c r="O14" t="n">
-        <v>989.7620250901066</v>
+        <v>989.7620250901061</v>
       </c>
       <c r="P14" t="n">
         <v>1099.465256491931</v>
@@ -5302,28 +5302,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R14" t="n">
-        <v>962.1762753293418</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="S14" t="n">
-        <v>754.2855273228794</v>
+        <v>962.1762753293416</v>
       </c>
       <c r="T14" t="n">
-        <v>529.5587134138201</v>
+        <v>737.4494614202823</v>
       </c>
       <c r="U14" t="n">
-        <v>529.5587134138201</v>
+        <v>737.4494614202823</v>
       </c>
       <c r="V14" t="n">
-        <v>529.5587134138201</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="W14" t="n">
-        <v>529.5587134138201</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="X14" t="n">
-        <v>529.5587134138201</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="Y14" t="n">
-        <v>529.5587134138201</v>
+        <v>579.9844679696338</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>171.0269307574397</v>
+        <v>196.5455503773155</v>
       </c>
       <c r="C15" t="n">
-        <v>171.0269307574397</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D15" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E15" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F15" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G15" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H15" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I15" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J15" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K15" t="n">
-        <v>159.4923828364511</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L15" t="n">
-        <v>405.6478494291521</v>
+        <v>268.2479876888895</v>
       </c>
       <c r="M15" t="n">
-        <v>562.3310704112777</v>
+        <v>541.6429362542212</v>
       </c>
       <c r="N15" t="n">
-        <v>562.3310704112777</v>
+        <v>815.037884819553</v>
       </c>
       <c r="O15" t="n">
-        <v>828.8278839945615</v>
+        <v>1081.534698402837</v>
       </c>
       <c r="P15" t="n">
-        <v>1025.71200399185</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q15" t="n">
         <v>1104.626054809422</v>
@@ -5384,25 +5384,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S15" t="n">
-        <v>932.6220420606005</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T15" t="n">
-        <v>821.7908379596693</v>
+        <v>902.746154837531</v>
       </c>
       <c r="U15" t="n">
-        <v>821.7908379596693</v>
+        <v>902.746154837531</v>
       </c>
       <c r="V15" t="n">
-        <v>586.6387297279265</v>
+        <v>667.5940466057882</v>
       </c>
       <c r="W15" t="n">
-        <v>586.6387297279265</v>
+        <v>413.3566898775866</v>
       </c>
       <c r="X15" t="n">
-        <v>378.7872295223937</v>
+        <v>404.3058491422694</v>
       </c>
       <c r="Y15" t="n">
-        <v>171.0269307574397</v>
+        <v>196.5455503773155</v>
       </c>
     </row>
     <row r="16">
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C16" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D16" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E16" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F16" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G16" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H16" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I16" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J16" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K16" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L16" t="n">
         <v>58.70189726492715</v>
@@ -5475,13 +5475,13 @@
         <v>198.9927170031359</v>
       </c>
       <c r="W16" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="X16" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="Y16" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="17">
@@ -5491,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>508.1578098032605</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="C17" t="n">
-        <v>508.1578098032605</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="D17" t="n">
-        <v>508.1578098032605</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="E17" t="n">
-        <v>508.1578098032605</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="F17" t="n">
-        <v>229.2118363665377</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="G17" t="n">
-        <v>229.2118363665377</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="H17" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I17" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J17" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K17" t="n">
         <v>142.8373253438683</v>
@@ -5527,10 +5527,10 @@
         <v>586.3582880173956</v>
       </c>
       <c r="N17" t="n">
-        <v>817.0829279823542</v>
+        <v>817.0829279823541</v>
       </c>
       <c r="O17" t="n">
-        <v>989.7620250901065</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P17" t="n">
         <v>1099.465256491931</v>
@@ -5539,28 +5539,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R17" t="n">
-        <v>962.1762753293418</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S17" t="n">
-        <v>754.2855273228794</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T17" t="n">
-        <v>529.5587134138201</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U17" t="n">
-        <v>529.5587134138201</v>
+        <v>850.7529338106224</v>
       </c>
       <c r="V17" t="n">
-        <v>508.1578098032605</v>
+        <v>850.7529338106224</v>
       </c>
       <c r="W17" t="n">
-        <v>508.1578098032605</v>
+        <v>850.7529338106224</v>
       </c>
       <c r="X17" t="n">
-        <v>508.1578098032605</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="Y17" t="n">
-        <v>508.1578098032605</v>
+        <v>579.9844679696338</v>
       </c>
     </row>
     <row r="18">
@@ -5570,46 +5570,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>266.5615620906656</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C18" t="n">
-        <v>92.10853280953856</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D18" t="n">
-        <v>92.10853280953856</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E18" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F18" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G18" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H18" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I18" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J18" t="n">
-        <v>28.39914141318535</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K18" t="n">
-        <v>28.39914141318535</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L18" t="n">
-        <v>274.5546080058863</v>
+        <v>268.2479876888894</v>
       </c>
       <c r="M18" t="n">
-        <v>547.9495565712182</v>
+        <v>541.6429362542212</v>
       </c>
       <c r="N18" t="n">
-        <v>821.3445051365501</v>
+        <v>815.037884819553</v>
       </c>
       <c r="O18" t="n">
-        <v>1087.841318719834</v>
+        <v>1081.534698402837</v>
       </c>
       <c r="P18" t="n">
         <v>1104.626054809422</v>
@@ -5627,19 +5627,19 @@
         <v>1104.626054809422</v>
       </c>
       <c r="U18" t="n">
-        <v>1104.626054809422</v>
+        <v>927.0937850266196</v>
       </c>
       <c r="V18" t="n">
-        <v>1104.626054809422</v>
+        <v>691.9416767948768</v>
       </c>
       <c r="W18" t="n">
-        <v>850.3886980812204</v>
+        <v>437.7043200666752</v>
       </c>
       <c r="X18" t="n">
-        <v>642.5371978756875</v>
+        <v>229.8528198611423</v>
       </c>
       <c r="Y18" t="n">
-        <v>434.7768991107336</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C19" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D19" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E19" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F19" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G19" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H19" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I19" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J19" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K19" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L19" t="n">
-        <v>58.70189726492715</v>
+        <v>58.70189726492713</v>
       </c>
       <c r="M19" t="n">
-        <v>107.6904745160687</v>
+        <v>107.6904745160686</v>
       </c>
       <c r="N19" t="n">
         <v>160.9488293168851</v>
       </c>
       <c r="O19" t="n">
-        <v>194.1252445754623</v>
+        <v>194.1252445754622</v>
       </c>
       <c r="P19" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Q19" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R19" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S19" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="T19" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="U19" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="V19" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="W19" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="X19" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="Y19" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>229.2118363665377</v>
+        <v>858.9304414063565</v>
       </c>
       <c r="C20" t="n">
-        <v>229.2118363665377</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="D20" t="n">
-        <v>229.2118363665377</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="E20" t="n">
-        <v>229.2118363665377</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="F20" t="n">
-        <v>229.2118363665377</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="G20" t="n">
-        <v>229.2118363665377</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="H20" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I20" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J20" t="n">
         <v>22.09252109618842</v>
@@ -5758,16 +5758,16 @@
         <v>142.8373253438683</v>
       </c>
       <c r="L20" t="n">
-        <v>344.9085595412869</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M20" t="n">
-        <v>586.3582880173957</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N20" t="n">
-        <v>817.0829279823542</v>
+        <v>817.0829279823541</v>
       </c>
       <c r="O20" t="n">
-        <v>989.7620250901064</v>
+        <v>989.7620250901062</v>
       </c>
       <c r="P20" t="n">
         <v>1099.465256491931</v>
@@ -5776,28 +5776,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R20" t="n">
-        <v>962.1762753293418</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S20" t="n">
-        <v>754.2855273228794</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T20" t="n">
-        <v>754.2855273228794</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U20" t="n">
-        <v>754.2855273228794</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V20" t="n">
-        <v>754.2855273228794</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W20" t="n">
-        <v>508.1578098032605</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="X20" t="n">
-        <v>229.2118363665377</v>
+        <v>858.9304414063565</v>
       </c>
       <c r="Y20" t="n">
-        <v>229.2118363665377</v>
+        <v>858.9304414063565</v>
       </c>
     </row>
     <row r="21">
@@ -5807,43 +5807,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>476.7989437360102</v>
+        <v>196.5455503773155</v>
       </c>
       <c r="C21" t="n">
-        <v>476.7989437360102</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D21" t="n">
-        <v>327.864534074759</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E21" t="n">
-        <v>168.6270790693035</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F21" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G21" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H21" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I21" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J21" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K21" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L21" t="n">
-        <v>268.2479876888895</v>
+        <v>268.2479876888894</v>
       </c>
       <c r="M21" t="n">
-        <v>541.6429362542214</v>
+        <v>541.6429362542212</v>
       </c>
       <c r="N21" t="n">
-        <v>815.0378848195533</v>
+        <v>815.037884819553</v>
       </c>
       <c r="O21" t="n">
         <v>1081.534698402837</v>
@@ -5858,25 +5858,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S21" t="n">
-        <v>1054.654479492923</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T21" t="n">
-        <v>852.7745795210321</v>
+        <v>1015.524794599613</v>
       </c>
       <c r="U21" t="n">
-        <v>852.7745795210321</v>
+        <v>1015.524794599613</v>
       </c>
       <c r="V21" t="n">
-        <v>852.7745795210321</v>
+        <v>780.3726863678703</v>
       </c>
       <c r="W21" t="n">
-        <v>852.7745795210321</v>
+        <v>780.3726863678703</v>
       </c>
       <c r="X21" t="n">
-        <v>852.7745795210321</v>
+        <v>572.5211861623375</v>
       </c>
       <c r="Y21" t="n">
-        <v>645.0142807560783</v>
+        <v>364.7608873973835</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C22" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D22" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E22" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F22" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G22" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H22" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I22" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J22" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K22" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L22" t="n">
-        <v>58.70189726492715</v>
+        <v>58.70189726492713</v>
       </c>
       <c r="M22" t="n">
-        <v>107.6904745160687</v>
+        <v>107.6904745160686</v>
       </c>
       <c r="N22" t="n">
         <v>160.9488293168851</v>
       </c>
       <c r="O22" t="n">
-        <v>194.1252445754623</v>
+        <v>194.1252445754622</v>
       </c>
       <c r="P22" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Q22" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R22" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S22" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="T22" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="U22" t="n">
-        <v>198.9927170031359</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="V22" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="W22" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="X22" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="Y22" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>827.9829634959067</v>
+        <v>1769.583453269422</v>
       </c>
       <c r="C23" t="n">
-        <v>459.0204465554949</v>
+        <v>1769.583453269422</v>
       </c>
       <c r="D23" t="n">
-        <v>459.0204465554949</v>
+        <v>1411.317754662671</v>
       </c>
       <c r="E23" t="n">
-        <v>459.0204465554949</v>
+        <v>1203.231033430811</v>
       </c>
       <c r="F23" t="n">
-        <v>459.0204465554949</v>
+        <v>792.2451286412038</v>
       </c>
       <c r="G23" t="n">
-        <v>40.46784683920975</v>
+        <v>373.6925289249186</v>
       </c>
       <c r="H23" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="I23" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="J23" t="n">
-        <v>107.2572125339109</v>
+        <v>107.2572125339111</v>
       </c>
       <c r="K23" t="n">
-        <v>328.1019626009679</v>
+        <v>328.1019626009682</v>
       </c>
       <c r="L23" t="n">
-        <v>654.3560310300137</v>
+        <v>654.356031030014</v>
       </c>
       <c r="M23" t="n">
         <v>1033.983090059323</v>
@@ -6004,7 +6004,7 @@
         <v>1405.120914245785</v>
       </c>
       <c r="O23" t="n">
-        <v>1710.388199564769</v>
+        <v>1710.38819956477</v>
       </c>
       <c r="P23" t="n">
         <v>1933.252382068733</v>
@@ -6022,19 +6022,19 @@
         <v>2023.392341960488</v>
       </c>
       <c r="U23" t="n">
-        <v>1769.583453269421</v>
+        <v>1769.583453269422</v>
       </c>
       <c r="V23" t="n">
-        <v>1438.520565925851</v>
+        <v>1769.583453269422</v>
       </c>
       <c r="W23" t="n">
-        <v>1438.520565925851</v>
+        <v>1769.583453269422</v>
       </c>
       <c r="X23" t="n">
-        <v>1065.054807664771</v>
+        <v>1769.583453269422</v>
       </c>
       <c r="Y23" t="n">
-        <v>1065.054807664771</v>
+        <v>1769.583453269422</v>
       </c>
     </row>
     <row r="24">
@@ -6044,40 +6044,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>778.1126197432169</v>
+        <v>633.3994138196973</v>
       </c>
       <c r="C24" t="n">
-        <v>603.6595904620899</v>
+        <v>633.3994138196973</v>
       </c>
       <c r="D24" t="n">
-        <v>454.7251808008386</v>
+        <v>484.465004158446</v>
       </c>
       <c r="E24" t="n">
-        <v>295.4877257953831</v>
+        <v>325.2275491529905</v>
       </c>
       <c r="F24" t="n">
-        <v>148.9531678222681</v>
+        <v>178.6929911798755</v>
       </c>
       <c r="G24" t="n">
-        <v>148.9531678222681</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="H24" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="I24" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="J24" t="n">
-        <v>86.55375581100978</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="K24" t="n">
-        <v>122.5224875632328</v>
+        <v>122.5224875632326</v>
       </c>
       <c r="L24" t="n">
-        <v>460.097743620491</v>
+        <v>460.0977436204909</v>
       </c>
       <c r="M24" t="n">
-        <v>906.0113666834375</v>
+        <v>906.0113666834374</v>
       </c>
       <c r="N24" t="n">
         <v>1379.434009878921</v>
@@ -6092,28 +6092,28 @@
         <v>2023.392341960488</v>
       </c>
       <c r="R24" t="n">
-        <v>1953.61939725912</v>
+        <v>1966.739372559994</v>
       </c>
       <c r="S24" t="n">
-        <v>1789.594856919893</v>
+        <v>1966.739372559994</v>
       </c>
       <c r="T24" t="n">
-        <v>1589.446511881749</v>
+        <v>1766.59102752185</v>
       </c>
       <c r="U24" t="n">
-        <v>1361.256162110027</v>
+        <v>1538.400677750128</v>
       </c>
       <c r="V24" t="n">
-        <v>1361.256162110027</v>
+        <v>1303.248569518386</v>
       </c>
       <c r="W24" t="n">
-        <v>1193.724418713704</v>
+        <v>1049.011212790184</v>
       </c>
       <c r="X24" t="n">
-        <v>985.8729185081709</v>
+        <v>841.1597125846513</v>
       </c>
       <c r="Y24" t="n">
-        <v>778.1126197432169</v>
+        <v>633.3994138196973</v>
       </c>
     </row>
     <row r="25">
@@ -6129,28 +6129,28 @@
         <v>208.5931782240099</v>
       </c>
       <c r="D25" t="n">
-        <v>58.47653881167415</v>
+        <v>208.5931782240099</v>
       </c>
       <c r="E25" t="n">
-        <v>58.47653881167415</v>
+        <v>208.5931782240099</v>
       </c>
       <c r="F25" t="n">
-        <v>40.46784683920975</v>
+        <v>61.70323072609952</v>
       </c>
       <c r="G25" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="H25" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="I25" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="J25" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="K25" t="n">
-        <v>66.69569932712992</v>
+        <v>66.69569932712993</v>
       </c>
       <c r="L25" t="n">
         <v>155.7847551810659</v>
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>759.4807815231628</v>
+        <v>1085.751910655737</v>
       </c>
       <c r="C26" t="n">
-        <v>759.4807815231628</v>
+        <v>1085.751910655737</v>
       </c>
       <c r="D26" t="n">
-        <v>759.4807815231628</v>
+        <v>1046.171716066946</v>
       </c>
       <c r="E26" t="n">
-        <v>373.6925289249186</v>
+        <v>1046.171716066946</v>
       </c>
       <c r="F26" t="n">
-        <v>373.6925289249186</v>
+        <v>635.1858112773382</v>
       </c>
       <c r="G26" t="n">
-        <v>373.6925289249186</v>
+        <v>216.6332115610531</v>
       </c>
       <c r="H26" t="n">
-        <v>40.46784683920975</v>
+        <v>216.6332115610531</v>
       </c>
       <c r="I26" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="J26" t="n">
-        <v>107.257212533911</v>
+        <v>107.2572125339111</v>
       </c>
       <c r="K26" t="n">
-        <v>328.101962600968</v>
+        <v>328.1019626009684</v>
       </c>
       <c r="L26" t="n">
-        <v>654.3560310300138</v>
+        <v>654.356031030014</v>
       </c>
       <c r="M26" t="n">
-        <v>1033.983090059323</v>
+        <v>1033.983090059324</v>
       </c>
       <c r="N26" t="n">
         <v>1405.120914245785</v>
@@ -6244,7 +6244,7 @@
         <v>1710.38819956477</v>
       </c>
       <c r="P26" t="n">
-        <v>1933.252382068733</v>
+        <v>1933.252382068734</v>
       </c>
       <c r="Q26" t="n">
         <v>2023.392341960488</v>
@@ -6256,22 +6256,22 @@
         <v>2023.392341960488</v>
       </c>
       <c r="T26" t="n">
-        <v>1802.180239640199</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="U26" t="n">
-        <v>1548.371350949133</v>
+        <v>1769.583453269422</v>
       </c>
       <c r="V26" t="n">
-        <v>1502.388768769089</v>
+        <v>1438.520565925851</v>
       </c>
       <c r="W26" t="n">
-        <v>1149.620113498975</v>
+        <v>1085.751910655737</v>
       </c>
       <c r="X26" t="n">
-        <v>1149.620113498975</v>
+        <v>1085.751910655737</v>
       </c>
       <c r="Y26" t="n">
-        <v>759.4807815231628</v>
+        <v>1085.751910655737</v>
       </c>
     </row>
     <row r="27">
@@ -6281,16 +6281,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>357.8125058608962</v>
+        <v>880.7415614882208</v>
       </c>
       <c r="C27" t="n">
-        <v>357.8125058608962</v>
+        <v>706.2885322070938</v>
       </c>
       <c r="D27" t="n">
-        <v>251.5821095672719</v>
+        <v>557.3541225458425</v>
       </c>
       <c r="E27" t="n">
-        <v>251.5821095672719</v>
+        <v>398.116667540387</v>
       </c>
       <c r="F27" t="n">
         <v>251.5821095672719</v>
@@ -6302,10 +6302,10 @@
         <v>113.3569652266061</v>
       </c>
       <c r="I27" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="J27" t="n">
-        <v>86.55375581100978</v>
+        <v>86.55375581100979</v>
       </c>
       <c r="K27" t="n">
         <v>291.9427578142076</v>
@@ -6314,7 +6314,7 @@
         <v>629.5180138714659</v>
       </c>
       <c r="M27" t="n">
-        <v>773.3516022495344</v>
+        <v>1075.431636934412</v>
       </c>
       <c r="N27" t="n">
         <v>1246.774245445018</v>
@@ -6323,34 +6323,34 @@
         <v>1613.447795097059</v>
       </c>
       <c r="P27" t="n">
-        <v>1890.732577526584</v>
+        <v>1890.732577526585</v>
       </c>
       <c r="Q27" t="n">
         <v>2023.392341960488</v>
       </c>
       <c r="R27" t="n">
-        <v>2023.392341960488</v>
+        <v>1953.61939725912</v>
       </c>
       <c r="S27" t="n">
-        <v>1859.367801621261</v>
+        <v>1789.594856919893</v>
       </c>
       <c r="T27" t="n">
-        <v>1659.219456583117</v>
+        <v>1589.446511881749</v>
       </c>
       <c r="U27" t="n">
-        <v>1431.029106811395</v>
+        <v>1361.256162110028</v>
       </c>
       <c r="V27" t="n">
-        <v>1195.876998579653</v>
+        <v>1361.256162110028</v>
       </c>
       <c r="W27" t="n">
-        <v>941.639641851451</v>
+        <v>1256.717197273243</v>
       </c>
       <c r="X27" t="n">
-        <v>733.7881416459181</v>
+        <v>1256.717197273243</v>
       </c>
       <c r="Y27" t="n">
-        <v>526.0278428809643</v>
+        <v>1048.956898508289</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="C28" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="D28" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="E28" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="F28" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="G28" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="H28" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="I28" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="J28" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="K28" t="n">
-        <v>66.69569932712992</v>
+        <v>66.69569932712994</v>
       </c>
       <c r="L28" t="n">
         <v>155.7847551810659</v>
@@ -6417,19 +6417,19 @@
         <v>498.0103482609705</v>
       </c>
       <c r="U28" t="n">
-        <v>329.8850168761704</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="V28" t="n">
-        <v>329.8850168761704</v>
+        <v>243.3258600550836</v>
       </c>
       <c r="W28" t="n">
-        <v>40.46784683920975</v>
+        <v>243.3258600550836</v>
       </c>
       <c r="X28" t="n">
-        <v>40.46784683920975</v>
+        <v>243.3258600550836</v>
       </c>
       <c r="Y28" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1456.356980227047</v>
+        <v>935.6995162828661</v>
       </c>
       <c r="C29" t="n">
-        <v>1456.356980227047</v>
+        <v>935.6995162828661</v>
       </c>
       <c r="D29" t="n">
-        <v>1456.356980227047</v>
+        <v>577.4338176761155</v>
       </c>
       <c r="E29" t="n">
-        <v>1203.231033430811</v>
+        <v>577.4338176761155</v>
       </c>
       <c r="F29" t="n">
-        <v>792.2451286412038</v>
+        <v>577.4338176761155</v>
       </c>
       <c r="G29" t="n">
-        <v>373.6925289249186</v>
+        <v>158.8812179598303</v>
       </c>
       <c r="H29" t="n">
-        <v>40.46784683920975</v>
+        <v>158.8812179598303</v>
       </c>
       <c r="I29" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="J29" t="n">
-        <v>107.257212533911</v>
+        <v>107.2572125339111</v>
       </c>
       <c r="K29" t="n">
-        <v>328.101962600968</v>
+        <v>328.1019626009682</v>
       </c>
       <c r="L29" t="n">
-        <v>654.3560310300136</v>
+        <v>654.356031030014</v>
       </c>
       <c r="M29" t="n">
-        <v>1033.983090059323</v>
+        <v>1033.983090059324</v>
       </c>
       <c r="N29" t="n">
         <v>1405.120914245785</v>
       </c>
       <c r="O29" t="n">
-        <v>1710.388199564769</v>
+        <v>1710.38819956477</v>
       </c>
       <c r="P29" t="n">
-        <v>1933.252382068733</v>
+        <v>1933.252382068734</v>
       </c>
       <c r="Q29" t="n">
         <v>2023.392341960488</v>
       </c>
       <c r="R29" t="n">
-        <v>1931.377971238402</v>
+        <v>1931.377971238403</v>
       </c>
       <c r="S29" t="n">
-        <v>1931.377971238402</v>
+        <v>1741.783394637791</v>
       </c>
       <c r="T29" t="n">
-        <v>1710.165868918114</v>
+        <v>1520.571292317503</v>
       </c>
       <c r="U29" t="n">
-        <v>1456.356980227047</v>
+        <v>1266.762403626437</v>
       </c>
       <c r="V29" t="n">
-        <v>1456.356980227047</v>
+        <v>935.6995162828661</v>
       </c>
       <c r="W29" t="n">
-        <v>1456.356980227047</v>
+        <v>935.6995162828661</v>
       </c>
       <c r="X29" t="n">
-        <v>1456.356980227047</v>
+        <v>935.6995162828661</v>
       </c>
       <c r="Y29" t="n">
-        <v>1456.356980227047</v>
+        <v>935.6995162828661</v>
       </c>
     </row>
     <row r="30">
@@ -6518,31 +6518,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>565.57280462585</v>
+        <v>916.3377640838827</v>
       </c>
       <c r="C30" t="n">
-        <v>565.57280462585</v>
+        <v>741.8847348027557</v>
       </c>
       <c r="D30" t="n">
-        <v>454.7251808008386</v>
+        <v>592.9503251415044</v>
       </c>
       <c r="E30" t="n">
-        <v>295.4877257953831</v>
+        <v>433.7128701360489</v>
       </c>
       <c r="F30" t="n">
-        <v>148.9531678222681</v>
+        <v>287.1783121629338</v>
       </c>
       <c r="G30" t="n">
         <v>148.9531678222681</v>
       </c>
       <c r="H30" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="I30" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="J30" t="n">
-        <v>86.55375581100978</v>
+        <v>86.55375581100979</v>
       </c>
       <c r="K30" t="n">
         <v>291.9427578142076</v>
@@ -6551,16 +6551,16 @@
         <v>629.5180138714659</v>
       </c>
       <c r="M30" t="n">
-        <v>1075.431636934412</v>
+        <v>773.3516022495343</v>
       </c>
       <c r="N30" t="n">
-        <v>1548.854280129896</v>
+        <v>1246.774245445018</v>
       </c>
       <c r="O30" t="n">
-        <v>1915.527829781937</v>
+        <v>1613.447795097059</v>
       </c>
       <c r="P30" t="n">
-        <v>2023.392341960488</v>
+        <v>1890.732577526585</v>
       </c>
       <c r="Q30" t="n">
         <v>2023.392341960488</v>
@@ -6575,19 +6575,19 @@
         <v>1659.219456583117</v>
       </c>
       <c r="U30" t="n">
-        <v>1431.029106811395</v>
+        <v>1431.029106811396</v>
       </c>
       <c r="V30" t="n">
         <v>1195.876998579653</v>
       </c>
       <c r="W30" t="n">
-        <v>941.639641851451</v>
+        <v>941.6396418514514</v>
       </c>
       <c r="X30" t="n">
-        <v>733.7881416459181</v>
+        <v>941.6396418514514</v>
       </c>
       <c r="Y30" t="n">
-        <v>733.7881416459181</v>
+        <v>941.6396418514514</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>40.46784683920975</v>
+        <v>227.5865111769538</v>
       </c>
       <c r="C31" t="n">
-        <v>40.46784683920975</v>
+        <v>227.5865111769538</v>
       </c>
       <c r="D31" t="n">
-        <v>40.46784683920975</v>
+        <v>227.5865111769538</v>
       </c>
       <c r="E31" t="n">
-        <v>40.46784683920975</v>
+        <v>227.5865111769538</v>
       </c>
       <c r="F31" t="n">
-        <v>40.46784683920975</v>
+        <v>80.69656367904341</v>
       </c>
       <c r="G31" t="n">
-        <v>40.46784683920975</v>
+        <v>80.69656367904341</v>
       </c>
       <c r="H31" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="I31" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="J31" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="K31" t="n">
-        <v>66.69569932712992</v>
+        <v>66.69569932712994</v>
       </c>
       <c r="L31" t="n">
         <v>155.7847551810659</v>
@@ -6642,31 +6642,31 @@
         <v>498.0103482609705</v>
       </c>
       <c r="Q31" t="n">
-        <v>498.0103482609705</v>
+        <v>446.4776800855049</v>
       </c>
       <c r="R31" t="n">
-        <v>498.0103482609705</v>
+        <v>446.4776800855049</v>
       </c>
       <c r="S31" t="n">
-        <v>279.1191793524194</v>
+        <v>227.5865111769538</v>
       </c>
       <c r="T31" t="n">
-        <v>279.1191793524194</v>
+        <v>227.5865111769538</v>
       </c>
       <c r="U31" t="n">
-        <v>279.1191793524194</v>
+        <v>227.5865111769538</v>
       </c>
       <c r="V31" t="n">
-        <v>40.46784683920975</v>
+        <v>227.5865111769538</v>
       </c>
       <c r="W31" t="n">
-        <v>40.46784683920975</v>
+        <v>227.5865111769538</v>
       </c>
       <c r="X31" t="n">
-        <v>40.46784683920975</v>
+        <v>227.5865111769538</v>
       </c>
       <c r="Y31" t="n">
-        <v>40.46784683920975</v>
+        <v>227.5865111769538</v>
       </c>
     </row>
     <row r="32">
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>459.0204465554949</v>
+        <v>712.2861523946569</v>
       </c>
       <c r="C32" t="n">
-        <v>459.0204465554949</v>
+        <v>712.2861523946569</v>
       </c>
       <c r="D32" t="n">
-        <v>459.0204465554949</v>
+        <v>712.2861523946569</v>
       </c>
       <c r="E32" t="n">
-        <v>459.0204465554949</v>
+        <v>326.4978997964127</v>
       </c>
       <c r="F32" t="n">
-        <v>459.0204465554949</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="G32" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="H32" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="I32" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="J32" t="n">
-        <v>107.257212533911</v>
+        <v>107.2572125339111</v>
       </c>
       <c r="K32" t="n">
         <v>328.101962600968</v>
@@ -6727,25 +6727,25 @@
         <v>2023.392341960488</v>
       </c>
       <c r="S32" t="n">
-        <v>1833.797765359877</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="T32" t="n">
-        <v>1612.585663039588</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="U32" t="n">
-        <v>1358.776774348522</v>
+        <v>1769.583453269422</v>
       </c>
       <c r="V32" t="n">
-        <v>1027.713887004951</v>
+        <v>1438.520565925851</v>
       </c>
       <c r="W32" t="n">
-        <v>1027.713887004951</v>
+        <v>1085.751910655737</v>
       </c>
       <c r="X32" t="n">
-        <v>1027.713887004951</v>
+        <v>712.2861523946569</v>
       </c>
       <c r="Y32" t="n">
-        <v>637.5745550291394</v>
+        <v>712.2861523946569</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>357.8125058608962</v>
+        <v>664.0151969445508</v>
       </c>
       <c r="C33" t="n">
-        <v>183.3594765797692</v>
+        <v>664.0151969445508</v>
       </c>
       <c r="D33" t="n">
-        <v>40.46784683920975</v>
+        <v>527.614299188235</v>
       </c>
       <c r="E33" t="n">
-        <v>40.46784683920975</v>
+        <v>368.3768441827795</v>
       </c>
       <c r="F33" t="n">
-        <v>40.46784683920975</v>
+        <v>221.8422862096645</v>
       </c>
       <c r="G33" t="n">
-        <v>40.46784683920975</v>
+        <v>221.8422862096645</v>
       </c>
       <c r="H33" t="n">
-        <v>40.46784683920975</v>
+        <v>113.3569652266061</v>
       </c>
       <c r="I33" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="J33" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="K33" t="n">
-        <v>40.46784683920975</v>
+        <v>245.8568488424076</v>
       </c>
       <c r="L33" t="n">
-        <v>378.043102896468</v>
+        <v>583.4321048996659</v>
       </c>
       <c r="M33" t="n">
-        <v>823.9567259594144</v>
+        <v>1029.345727962612</v>
       </c>
       <c r="N33" t="n">
-        <v>1297.379369154898</v>
+        <v>1502.768371158096</v>
       </c>
       <c r="O33" t="n">
-        <v>1664.052918806939</v>
+        <v>1869.441920810137</v>
       </c>
       <c r="P33" t="n">
-        <v>1941.337701236464</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="Q33" t="n">
         <v>2023.392341960488</v>
       </c>
       <c r="R33" t="n">
-        <v>2023.392341960488</v>
+        <v>1953.61939725912</v>
       </c>
       <c r="S33" t="n">
-        <v>1859.367801621261</v>
+        <v>1789.594856919893</v>
       </c>
       <c r="T33" t="n">
-        <v>1659.219456583117</v>
+        <v>1589.446511881749</v>
       </c>
       <c r="U33" t="n">
-        <v>1431.029106811395</v>
+        <v>1361.256162110028</v>
       </c>
       <c r="V33" t="n">
-        <v>1195.876998579653</v>
+        <v>1126.104053878285</v>
       </c>
       <c r="W33" t="n">
-        <v>941.639641851451</v>
+        <v>871.8666971500836</v>
       </c>
       <c r="X33" t="n">
-        <v>733.7881416459181</v>
+        <v>664.0151969445508</v>
       </c>
       <c r="Y33" t="n">
-        <v>526.0278428809643</v>
+        <v>664.0151969445508</v>
       </c>
     </row>
     <row r="34">
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="C34" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="D34" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="E34" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="F34" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="G34" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="H34" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="I34" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="J34" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="K34" t="n">
-        <v>66.69569932712992</v>
+        <v>66.69569932712994</v>
       </c>
       <c r="L34" t="n">
         <v>155.7847551810659</v>
@@ -6897,13 +6897,13 @@
         <v>329.8850168761704</v>
       </c>
       <c r="W34" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="X34" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="Y34" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1266.762403626436</v>
+        <v>913.9937483563224</v>
       </c>
       <c r="C35" t="n">
-        <v>1266.762403626436</v>
+        <v>913.9937483563224</v>
       </c>
       <c r="D35" t="n">
-        <v>1266.762403626436</v>
+        <v>844.8086991537391</v>
       </c>
       <c r="E35" t="n">
-        <v>1046.171716066946</v>
+        <v>459.0204465554949</v>
       </c>
       <c r="F35" t="n">
-        <v>635.1858112773382</v>
+        <v>459.0204465554949</v>
       </c>
       <c r="G35" t="n">
-        <v>216.6332115610531</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="H35" t="n">
-        <v>216.6332115610531</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="I35" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="J35" t="n">
         <v>107.257212533911</v>
@@ -6943,7 +6943,7 @@
         <v>328.101962600968</v>
       </c>
       <c r="L35" t="n">
-        <v>654.3560310300136</v>
+        <v>654.3560310300139</v>
       </c>
       <c r="M35" t="n">
         <v>1033.983090059323</v>
@@ -6952,7 +6952,7 @@
         <v>1405.120914245785</v>
       </c>
       <c r="O35" t="n">
-        <v>1710.388199564769</v>
+        <v>1710.38819956477</v>
       </c>
       <c r="P35" t="n">
         <v>1933.252382068733</v>
@@ -6967,7 +6967,7 @@
         <v>1741.783394637791</v>
       </c>
       <c r="T35" t="n">
-        <v>1520.571292317502</v>
+        <v>1520.571292317503</v>
       </c>
       <c r="U35" t="n">
         <v>1266.762403626436</v>
@@ -6976,13 +6976,13 @@
         <v>1266.762403626436</v>
       </c>
       <c r="W35" t="n">
-        <v>1266.762403626436</v>
+        <v>913.9937483563224</v>
       </c>
       <c r="X35" t="n">
-        <v>1266.762403626436</v>
+        <v>913.9937483563224</v>
       </c>
       <c r="Y35" t="n">
-        <v>1266.762403626436</v>
+        <v>913.9937483563224</v>
       </c>
     </row>
     <row r="36">
@@ -6992,40 +6992,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>620.2794385188233</v>
+        <v>690.0523832201914</v>
       </c>
       <c r="C36" t="n">
-        <v>620.2794385188233</v>
+        <v>515.5993539390644</v>
       </c>
       <c r="D36" t="n">
-        <v>471.3450288575721</v>
+        <v>446.4157671683893</v>
       </c>
       <c r="E36" t="n">
-        <v>325.2275491529905</v>
+        <v>287.1783121629338</v>
       </c>
       <c r="F36" t="n">
-        <v>178.6929911798755</v>
+        <v>287.1783121629338</v>
       </c>
       <c r="G36" t="n">
-        <v>40.46784683920975</v>
+        <v>148.9531678222681</v>
       </c>
       <c r="H36" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="I36" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="J36" t="n">
-        <v>86.55375581100978</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="K36" t="n">
-        <v>291.9427578142076</v>
+        <v>245.8568488424076</v>
       </c>
       <c r="L36" t="n">
-        <v>327.4379791865879</v>
+        <v>583.4321048996659</v>
       </c>
       <c r="M36" t="n">
-        <v>773.3516022495344</v>
+        <v>773.3516022495343</v>
       </c>
       <c r="N36" t="n">
         <v>1246.774245445018</v>
@@ -7040,28 +7040,28 @@
         <v>2023.392341960488</v>
       </c>
       <c r="R36" t="n">
-        <v>1953.61939725912</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="S36" t="n">
-        <v>1953.61939725912</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="T36" t="n">
-        <v>1753.471052220976</v>
+        <v>1823.243996922344</v>
       </c>
       <c r="U36" t="n">
-        <v>1525.280702449254</v>
+        <v>1595.053647150622</v>
       </c>
       <c r="V36" t="n">
-        <v>1290.128594217512</v>
+        <v>1359.90153891888</v>
       </c>
       <c r="W36" t="n">
-        <v>1035.89123748931</v>
+        <v>1105.664182190678</v>
       </c>
       <c r="X36" t="n">
-        <v>828.0397372837772</v>
+        <v>897.8126819851452</v>
       </c>
       <c r="Y36" t="n">
-        <v>620.2794385188233</v>
+        <v>690.0523832201914</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>498.0103482609705</v>
+        <v>208.822331825627</v>
       </c>
       <c r="C37" t="n">
-        <v>498.0103482609705</v>
+        <v>208.822331825627</v>
       </c>
       <c r="D37" t="n">
-        <v>347.8937088486348</v>
+        <v>208.822331825627</v>
       </c>
       <c r="E37" t="n">
-        <v>199.9806152662417</v>
+        <v>208.822331825627</v>
       </c>
       <c r="F37" t="n">
-        <v>53.09066776833131</v>
+        <v>208.822331825627</v>
       </c>
       <c r="G37" t="n">
-        <v>53.09066776833131</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="H37" t="n">
-        <v>53.09066776833131</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="I37" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="J37" t="n">
-        <v>40.46784683920975</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="K37" t="n">
-        <v>66.69569932712992</v>
+        <v>66.69569932712993</v>
       </c>
       <c r="L37" t="n">
         <v>155.7847551810659</v>
@@ -7128,19 +7128,19 @@
         <v>498.0103482609705</v>
       </c>
       <c r="U37" t="n">
-        <v>498.0103482609705</v>
+        <v>208.822331825627</v>
       </c>
       <c r="V37" t="n">
-        <v>498.0103482609705</v>
+        <v>208.822331825627</v>
       </c>
       <c r="W37" t="n">
-        <v>498.0103482609705</v>
+        <v>208.822331825627</v>
       </c>
       <c r="X37" t="n">
-        <v>498.0103482609705</v>
+        <v>208.822331825627</v>
       </c>
       <c r="Y37" t="n">
-        <v>498.0103482609705</v>
+        <v>208.822331825627</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1548.371350949133</v>
+        <v>1027.713887004952</v>
       </c>
       <c r="C38" t="n">
-        <v>1548.371350949133</v>
+        <v>1027.713887004952</v>
       </c>
       <c r="D38" t="n">
-        <v>1203.231033430811</v>
+        <v>1027.713887004952</v>
       </c>
       <c r="E38" t="n">
-        <v>1203.231033430811</v>
+        <v>1027.713887004952</v>
       </c>
       <c r="F38" t="n">
-        <v>792.2451286412038</v>
+        <v>616.7279822153441</v>
       </c>
       <c r="G38" t="n">
-        <v>373.6925289249186</v>
+        <v>198.175382499059</v>
       </c>
       <c r="H38" t="n">
-        <v>40.46784683920976</v>
+        <v>198.175382499059</v>
       </c>
       <c r="I38" t="n">
         <v>40.46784683920976</v>
@@ -7180,7 +7180,7 @@
         <v>328.1019626009684</v>
       </c>
       <c r="L38" t="n">
-        <v>654.356031030014</v>
+        <v>654.3560310300142</v>
       </c>
       <c r="M38" t="n">
         <v>1033.983090059324</v>
@@ -7201,25 +7201,25 @@
         <v>2023.392341960488</v>
       </c>
       <c r="S38" t="n">
-        <v>2023.392341960488</v>
+        <v>1833.797765359877</v>
       </c>
       <c r="T38" t="n">
-        <v>1802.180239640199</v>
+        <v>1612.585663039588</v>
       </c>
       <c r="U38" t="n">
-        <v>1548.371350949133</v>
+        <v>1358.776774348522</v>
       </c>
       <c r="V38" t="n">
-        <v>1548.371350949133</v>
+        <v>1027.713887004952</v>
       </c>
       <c r="W38" t="n">
-        <v>1548.371350949133</v>
+        <v>1027.713887004952</v>
       </c>
       <c r="X38" t="n">
-        <v>1548.371350949133</v>
+        <v>1027.713887004952</v>
       </c>
       <c r="Y38" t="n">
-        <v>1548.371350949133</v>
+        <v>1027.713887004952</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>595.9818591744399</v>
+        <v>585.2725938538545</v>
       </c>
       <c r="C39" t="n">
-        <v>421.5288298933129</v>
+        <v>410.8195645727274</v>
       </c>
       <c r="D39" t="n">
-        <v>272.5944202320617</v>
+        <v>410.8195645727274</v>
       </c>
       <c r="E39" t="n">
-        <v>113.3569652266061</v>
+        <v>251.5821095672719</v>
       </c>
       <c r="F39" t="n">
-        <v>113.3569652266061</v>
+        <v>251.5821095672719</v>
       </c>
       <c r="G39" t="n">
         <v>113.3569652266061</v>
@@ -7253,25 +7253,25 @@
         <v>40.46784683920976</v>
       </c>
       <c r="J39" t="n">
-        <v>40.46784683920976</v>
+        <v>86.55375581100979</v>
       </c>
       <c r="K39" t="n">
-        <v>40.46784683920976</v>
+        <v>86.55375581100979</v>
       </c>
       <c r="L39" t="n">
-        <v>378.043102896468</v>
+        <v>424.1290118682681</v>
       </c>
       <c r="M39" t="n">
-        <v>823.9567259594144</v>
+        <v>870.0426349312146</v>
       </c>
       <c r="N39" t="n">
-        <v>1297.379369154898</v>
+        <v>1343.465278126698</v>
       </c>
       <c r="O39" t="n">
-        <v>1664.052918806939</v>
+        <v>1710.138827778739</v>
       </c>
       <c r="P39" t="n">
-        <v>1941.337701236464</v>
+        <v>1987.423610208265</v>
       </c>
       <c r="Q39" t="n">
         <v>2023.392341960488</v>
@@ -7286,19 +7286,19 @@
         <v>1659.219456583117</v>
       </c>
       <c r="U39" t="n">
-        <v>1431.029106811396</v>
+        <v>1450.7288960394</v>
       </c>
       <c r="V39" t="n">
-        <v>1431.029106811396</v>
+        <v>1215.576787807657</v>
       </c>
       <c r="W39" t="n">
-        <v>1176.791750083194</v>
+        <v>961.3394310794554</v>
       </c>
       <c r="X39" t="n">
-        <v>968.9402498776612</v>
+        <v>753.4879308739226</v>
       </c>
       <c r="Y39" t="n">
-        <v>761.1799511127074</v>
+        <v>753.4879308739226</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>498.0103482609705</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="C40" t="n">
-        <v>498.0103482609705</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="D40" t="n">
-        <v>347.8937088486348</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="E40" t="n">
-        <v>199.9806152662417</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="F40" t="n">
-        <v>199.9806152662417</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="G40" t="n">
-        <v>184.7393153117505</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="H40" t="n">
-        <v>184.7393153117505</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="I40" t="n">
         <v>40.46784683920976</v>
@@ -7335,7 +7335,7 @@
         <v>40.46784683920976</v>
       </c>
       <c r="K40" t="n">
-        <v>66.69569932712993</v>
+        <v>66.69569932712994</v>
       </c>
       <c r="L40" t="n">
         <v>155.7847551810659</v>
@@ -7371,13 +7371,13 @@
         <v>498.0103482609705</v>
       </c>
       <c r="W40" t="n">
-        <v>498.0103482609705</v>
+        <v>208.5931782240099</v>
       </c>
       <c r="X40" t="n">
-        <v>498.0103482609705</v>
+        <v>208.5931782240099</v>
       </c>
       <c r="Y40" t="n">
-        <v>498.0103482609705</v>
+        <v>208.5931782240099</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>674.9452317348371</v>
+        <v>683.5928350588633</v>
       </c>
       <c r="C41" t="n">
-        <v>674.9452317348371</v>
+        <v>683.5928350588633</v>
       </c>
       <c r="D41" t="n">
-        <v>674.9452317348371</v>
+        <v>683.5928350588633</v>
       </c>
       <c r="E41" t="n">
-        <v>674.9452317348371</v>
+        <v>635.1858112773382</v>
       </c>
       <c r="F41" t="n">
-        <v>373.6925289249186</v>
+        <v>635.1858112773382</v>
       </c>
       <c r="G41" t="n">
-        <v>373.6925289249186</v>
+        <v>216.6332115610531</v>
       </c>
       <c r="H41" t="n">
-        <v>40.46784683920976</v>
+        <v>216.6332115610531</v>
       </c>
       <c r="I41" t="n">
         <v>40.46784683920976</v>
       </c>
       <c r="J41" t="n">
-        <v>107.257212533911</v>
+        <v>107.2572125339111</v>
       </c>
       <c r="K41" t="n">
-        <v>328.101962600968</v>
+        <v>328.1019626009682</v>
       </c>
       <c r="L41" t="n">
-        <v>654.3560310300138</v>
+        <v>654.356031030014</v>
       </c>
       <c r="M41" t="n">
         <v>1033.983090059323</v>
@@ -7441,22 +7441,22 @@
         <v>1833.797765359877</v>
       </c>
       <c r="T41" t="n">
-        <v>1612.585663039588</v>
+        <v>1833.797765359877</v>
       </c>
       <c r="U41" t="n">
-        <v>1358.776774348522</v>
+        <v>1833.797765359877</v>
       </c>
       <c r="V41" t="n">
-        <v>1027.713887004951</v>
+        <v>1833.797765359877</v>
       </c>
       <c r="W41" t="n">
-        <v>674.9452317348371</v>
+        <v>1833.797765359877</v>
       </c>
       <c r="X41" t="n">
-        <v>674.9452317348371</v>
+        <v>1460.332007098797</v>
       </c>
       <c r="Y41" t="n">
-        <v>674.9452317348371</v>
+        <v>1070.192675122985</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>521.8370462001233</v>
+        <v>690.0523832201914</v>
       </c>
       <c r="C42" t="n">
-        <v>521.8370462001233</v>
+        <v>515.5993539390644</v>
       </c>
       <c r="D42" t="n">
-        <v>521.8370462001233</v>
+        <v>515.5993539390644</v>
       </c>
       <c r="E42" t="n">
-        <v>362.5995911946678</v>
+        <v>506.6019885234452</v>
       </c>
       <c r="F42" t="n">
-        <v>287.1783121629338</v>
+        <v>360.0674305503302</v>
       </c>
       <c r="G42" t="n">
-        <v>148.9531678222681</v>
+        <v>221.8422862096645</v>
       </c>
       <c r="H42" t="n">
-        <v>40.46784683920976</v>
+        <v>113.3569652266061</v>
       </c>
       <c r="I42" t="n">
         <v>40.46784683920976</v>
@@ -7502,13 +7502,13 @@
         <v>1075.431636934412</v>
       </c>
       <c r="N42" t="n">
-        <v>1246.774245445018</v>
+        <v>1548.854280129896</v>
       </c>
       <c r="O42" t="n">
-        <v>1613.447795097059</v>
+        <v>1915.527829781937</v>
       </c>
       <c r="P42" t="n">
-        <v>1890.732577526584</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="Q42" t="n">
         <v>2023.392341960488</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>498.0103482609705</v>
+        <v>208.5931782240099</v>
       </c>
       <c r="C43" t="n">
-        <v>498.0103482609705</v>
+        <v>208.5931782240099</v>
       </c>
       <c r="D43" t="n">
-        <v>498.0103482609705</v>
+        <v>208.5931782240099</v>
       </c>
       <c r="E43" t="n">
-        <v>350.0972546785774</v>
+        <v>208.5931782240099</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0972546785774</v>
+        <v>208.5931782240099</v>
       </c>
       <c r="G43" t="n">
-        <v>180.8333427685329</v>
+        <v>200.5644120622488</v>
       </c>
       <c r="H43" t="n">
         <v>40.46784683920976</v>
@@ -7608,13 +7608,13 @@
         <v>498.0103482609705</v>
       </c>
       <c r="W43" t="n">
-        <v>498.0103482609705</v>
+        <v>208.5931782240099</v>
       </c>
       <c r="X43" t="n">
-        <v>498.0103482609705</v>
+        <v>208.5931782240099</v>
       </c>
       <c r="Y43" t="n">
-        <v>498.0103482609705</v>
+        <v>208.5931782240099</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>585.5957285014648</v>
+        <v>462.3807327385747</v>
       </c>
       <c r="C44" t="n">
-        <v>216.6332115610531</v>
+        <v>462.3807327385747</v>
       </c>
       <c r="D44" t="n">
-        <v>216.6332115610531</v>
+        <v>104.1150341318242</v>
       </c>
       <c r="E44" t="n">
-        <v>216.6332115610531</v>
+        <v>104.1150341318242</v>
       </c>
       <c r="F44" t="n">
-        <v>216.6332115610531</v>
+        <v>104.1150341318242</v>
       </c>
       <c r="G44" t="n">
-        <v>216.6332115610531</v>
+        <v>104.1150341318242</v>
       </c>
       <c r="H44" t="n">
-        <v>216.6332115610531</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="I44" t="n">
         <v>40.46784683920976</v>
       </c>
       <c r="J44" t="n">
-        <v>107.2572125339111</v>
+        <v>107.257212533911</v>
       </c>
       <c r="K44" t="n">
-        <v>328.1019626009682</v>
+        <v>328.101962600968</v>
       </c>
       <c r="L44" t="n">
-        <v>654.356031030014</v>
+        <v>654.3560310300138</v>
       </c>
       <c r="M44" t="n">
         <v>1033.983090059323</v>
@@ -7672,28 +7672,28 @@
         <v>2023.392341960488</v>
       </c>
       <c r="R44" t="n">
-        <v>1931.377971238402</v>
+        <v>2023.392341960488</v>
       </c>
       <c r="S44" t="n">
-        <v>1741.783394637791</v>
+        <v>1833.797765359877</v>
       </c>
       <c r="T44" t="n">
-        <v>1520.571292317503</v>
+        <v>1612.585663039588</v>
       </c>
       <c r="U44" t="n">
-        <v>1266.762403626436</v>
+        <v>1612.585663039588</v>
       </c>
       <c r="V44" t="n">
-        <v>938.364383771579</v>
+        <v>1612.585663039588</v>
       </c>
       <c r="W44" t="n">
-        <v>585.5957285014648</v>
+        <v>1612.585663039588</v>
       </c>
       <c r="X44" t="n">
-        <v>585.5957285014648</v>
+        <v>1239.119904778508</v>
       </c>
       <c r="Y44" t="n">
-        <v>585.5957285014648</v>
+        <v>848.9805728026965</v>
       </c>
     </row>
     <row r="45">
@@ -7703,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>724.0814111367829</v>
+        <v>664.1063983851295</v>
       </c>
       <c r="C45" t="n">
-        <v>724.0814111367829</v>
+        <v>664.1063983851295</v>
       </c>
       <c r="D45" t="n">
-        <v>575.1470014755316</v>
+        <v>664.1063983851295</v>
       </c>
       <c r="E45" t="n">
-        <v>415.9095464700761</v>
+        <v>504.868943379674</v>
       </c>
       <c r="F45" t="n">
         <v>360.0674305503302</v>
@@ -7727,16 +7727,16 @@
         <v>40.46784683920976</v>
       </c>
       <c r="J45" t="n">
-        <v>86.55375581100978</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="K45" t="n">
-        <v>291.9427578142076</v>
+        <v>40.46784683920976</v>
       </c>
       <c r="L45" t="n">
-        <v>629.5180138714659</v>
+        <v>327.4379791865878</v>
       </c>
       <c r="M45" t="n">
-        <v>1075.431636934412</v>
+        <v>773.3516022495343</v>
       </c>
       <c r="N45" t="n">
         <v>1246.774245445018</v>
@@ -7760,19 +7760,19 @@
         <v>1589.446511881749</v>
       </c>
       <c r="U45" t="n">
-        <v>1589.446511881749</v>
+        <v>1361.256162110028</v>
       </c>
       <c r="V45" t="n">
-        <v>1354.294403650006</v>
+        <v>1126.104053878285</v>
       </c>
       <c r="W45" t="n">
-        <v>1100.057046921805</v>
+        <v>871.8666971500834</v>
       </c>
       <c r="X45" t="n">
-        <v>1100.057046921805</v>
+        <v>871.8666971500834</v>
       </c>
       <c r="Y45" t="n">
-        <v>892.296748156851</v>
+        <v>664.1063983851295</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>40.46784683920976</v>
+        <v>208.5931782240099</v>
       </c>
       <c r="C46" t="n">
-        <v>40.46784683920976</v>
+        <v>208.5931782240099</v>
       </c>
       <c r="D46" t="n">
-        <v>40.46784683920976</v>
+        <v>208.5931782240099</v>
       </c>
       <c r="E46" t="n">
-        <v>40.46784683920976</v>
+        <v>208.5931782240099</v>
       </c>
       <c r="F46" t="n">
-        <v>40.46784683920976</v>
+        <v>208.5931782240099</v>
       </c>
       <c r="G46" t="n">
         <v>40.46784683920976</v>
@@ -7839,19 +7839,19 @@
         <v>498.0103482609705</v>
       </c>
       <c r="U46" t="n">
-        <v>329.8850168761704</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="V46" t="n">
-        <v>329.8850168761704</v>
+        <v>498.0103482609705</v>
       </c>
       <c r="W46" t="n">
-        <v>40.46784683920976</v>
+        <v>208.5931782240099</v>
       </c>
       <c r="X46" t="n">
-        <v>40.46784683920976</v>
+        <v>208.5931782240099</v>
       </c>
       <c r="Y46" t="n">
-        <v>40.46784683920976</v>
+        <v>208.5931782240099</v>
       </c>
     </row>
   </sheetData>
@@ -7984,7 +7984,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8060,16 +8060,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,13 +8300,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>142.5962444444444</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N9" t="n">
-        <v>292.5201795090609</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8768,25 +8768,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>125.6774978810001</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>399.2039605324504</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N12" t="n">
-        <v>331.5199135162565</v>
+        <v>263.6455160524019</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>119.5899201578276</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9008,25 +9008,25 @@
         <v>119.7207117878867</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>281.3133266100198</v>
+        <v>399.2039605324504</v>
       </c>
       <c r="N15" t="n">
-        <v>111.7499598249992</v>
+        <v>387.9064735273546</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>142.9145225887213</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K18" t="n">
-        <v>125.6774978810001</v>
+        <v>125.6774978810002</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9254,13 +9254,13 @@
         <v>399.2039605324505</v>
       </c>
       <c r="N18" t="n">
-        <v>387.9064735273547</v>
+        <v>387.9064735273546</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>136.5441990361994</v>
+        <v>142.9145225887215</v>
       </c>
       <c r="Q18" t="n">
         <v>130.3661252938572</v>
@@ -9482,7 +9482,7 @@
         <v>119.7207117878867</v>
       </c>
       <c r="K21" t="n">
-        <v>125.6774978810001</v>
+        <v>125.6774978810002</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9491,7 +9491,7 @@
         <v>399.2039605324505</v>
       </c>
       <c r="N21" t="n">
-        <v>387.9064735273547</v>
+        <v>387.9064735273546</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9500,7 +9500,7 @@
         <v>142.9145225887215</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3661252938571</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>79.53961213657041</v>
       </c>
       <c r="K24" t="n">
-        <v>93.33365090048285</v>
+        <v>139.885074104321</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>76.07752568140141</v>
+        <v>76.0775256814014</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9895,7 +9895,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599045</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9962,10 +9962,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>160.5737155834565</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>174.21102617701</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10114,7 +10114,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711649</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10199,7 +10199,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>160.5737155834564</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10208,10 +10208,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>147.3311825278415</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>76.07752568140141</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>79.53961213657043</v>
+        <v>79.53961213657041</v>
       </c>
       <c r="K33" t="n">
-        <v>57.0015986255101</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10445,10 +10445,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>193.8826057316799</v>
       </c>
       <c r="Q33" t="n">
-        <v>158.9610011602126</v>
+        <v>76.0775256814014</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,16 +10664,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>79.53961213657041</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>65.70899713691583</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>207.1251387872948</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>79.53961213657043</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>57.0015986255101</v>
+        <v>57.00159862551008</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>158.9610011602131</v>
+        <v>112.4095779563746</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11150,16 +11150,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>174.21102617701</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>147.3311825278412</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>76.0775256814014</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11375,19 +11375,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>79.53961213657041</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>57.00159862551008</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>319.7240587278226</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>174.21102617701</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>354.079835614828</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22591,31 +22591,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22643,10 +22643,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>66.21791707219469</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -22673,13 +22673,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -22688,7 +22688,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>146.95659991356</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22761,10 +22761,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>260.2725546269769</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22801,7 +22801,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -22828,13 +22828,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22846,13 +22846,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>296.8154002296655</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22871,22 +22871,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>29.41897557875012</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>176.6113966813738</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -22931,7 +22931,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22992,7 +22992,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23023,13 +23023,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>165.8617568640524</v>
@@ -23038,7 +23038,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>137.1801156868699</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -23065,10 +23065,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23077,7 +23077,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>188.9293852055442</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23086,7 +23086,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23099,25 +23099,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -23150,25 +23150,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>131.1079798814004</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>53.31968594594142</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23229,7 +23229,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>106.5773279611251</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23272,13 +23272,13 @@
         <v>130.719532039356</v>
       </c>
       <c r="G11" t="n">
-        <v>171.9232912582848</v>
+        <v>139.005434824964</v>
       </c>
       <c r="H11" t="n">
         <v>338.0329468943008</v>
       </c>
       <c r="I11" t="n">
-        <v>205.0481221176458</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>311.050433566024</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>110.0814249536982</v>
+        <v>110.0814249536981</v>
       </c>
     </row>
     <row r="12">
@@ -23339,7 +23339,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23357,7 +23357,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I12" t="n">
-        <v>86.80307722268741</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23390,7 +23390,7 @@
         <v>170.2839726213331</v>
       </c>
       <c r="T12" t="n">
-        <v>171.0540959567876</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23399,13 +23399,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>44.35788435208687</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23478,13 +23478,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>111.3918043887131</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>43.45345940421689</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>106.5773279611251</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23506,7 +23506,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>180.6410290496116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>139.005434824964</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>251.3343897888113</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>171.8619149539929</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23576,10 +23576,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -23624,10 +23624,10 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T15" t="n">
-        <v>90.13820891224991</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9364262421938</v>
@@ -23636,10 +23636,10 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>196.8126528755135</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23740,19 +23740,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>105.7738563699064</v>
       </c>
       <c r="F17" t="n">
-        <v>130.719532039356</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>415.1619485273195</v>
       </c>
       <c r="H17" t="n">
-        <v>338.0329468943008</v>
+        <v>61.87643319194541</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>306.5653638956809</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>101.6703194958903</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23810,16 +23810,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>88.32922885918433</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -23831,7 +23831,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I18" t="n">
-        <v>86.80307722268739</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23867,10 +23867,10 @@
         <v>199.8611009721718</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9364262421938</v>
+        <v>50.17947915721973</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>111.3918043887131</v>
+        <v>111.3918043887132</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23971,10 +23971,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>89.11637806865212</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>78.52652791832753</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23986,10 +23986,10 @@
         <v>415.1619485273195</v>
       </c>
       <c r="H20" t="n">
-        <v>338.0329468943008</v>
+        <v>61.87643319194541</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,10 +24016,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T20" t="n">
         <v>222.4795457699687</v>
@@ -24031,10 +24031,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>105.5745283729903</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>93.57458697611355</v>
+        <v>126.4924434094345</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24050,16 +24050,16 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>137.2681884137393</v>
@@ -24068,7 +24068,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I21" t="n">
-        <v>86.80307722268739</v>
+        <v>86.80307722268741</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,25 +24095,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>95.48084390037955</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S21" t="n">
-        <v>120.8121130579992</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>111.6508533644612</v>
       </c>
       <c r="U21" t="n">
         <v>225.9364262421938</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24153,7 +24153,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K22" t="n">
-        <v>14.932250645712</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24186,10 +24186,10 @@
         <v>286.3155846423218</v>
       </c>
       <c r="V22" t="n">
-        <v>77.00644937595007</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>111.3918043887132</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>148.0327159363049</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>175.9245160527205</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>329.8924352648517</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>174.4037110746249</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>91.0942270148646</v>
+        <v>91.09422701486459</v>
       </c>
       <c r="S23" t="n">
         <v>187.6986308346051</v>
@@ -24265,13 +24265,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24287,7 +24287,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -24299,10 +24299,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>136.8428928972591</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>107.4004677732277</v>
       </c>
       <c r="I24" t="n">
         <v>72.16022720352242</v>
@@ -24332,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>12.98877554786516</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>162.3842949358346</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24344,10 +24344,10 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>85.83855719855916</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24369,16 +24369,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>127.5924429701915</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.571272790944</v>
+        <v>146.5482427429232</v>
       </c>
       <c r="H25" t="n">
         <v>158.4955995708086</v>
@@ -24448,22 +24448,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>315.4986489777793</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>414.3670737191223</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>329.8924352648517</v>
       </c>
       <c r="I26" t="n">
-        <v>174.4037110746249</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,19 +24490,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>91.0942270148646</v>
+        <v>91.09422701486459</v>
       </c>
       <c r="S26" t="n">
         <v>187.6986308346051</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>218.9999812970856</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>282.2295021118912</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24524,16 +24524,16 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>42.27697323395068</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>69.07521525435415</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24581,13 +24581,13 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>148.2014079725022</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24657,19 +24657,19 @@
         <v>226.1522977307185</v>
       </c>
       <c r="U28" t="n">
-        <v>119.852058200038</v>
+        <v>286.2961362709901</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>17.7552202683797</v>
       </c>
     </row>
     <row r="29">
@@ -24685,22 +24685,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>131.335682743988</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>329.8924352648517</v>
       </c>
       <c r="I29" t="n">
-        <v>174.4037110746249</v>
+        <v>57.17447366521048</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>187.6986308346051</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24739,7 +24739,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24758,13 +24758,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>141.4843246599743</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>37.70591797787742</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -24773,7 +24773,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>136.8428928972591</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -24824,7 +24824,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24849,13 +24849,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>167.571272790944</v>
       </c>
       <c r="H31" t="n">
-        <v>158.4955995708086</v>
+        <v>118.6691698993733</v>
       </c>
       <c r="I31" t="n">
         <v>142.8287537878153</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>51.01734149371097</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>158.4218578960072</v>
@@ -24897,7 +24897,7 @@
         <v>286.2961362709901</v>
       </c>
       <c r="V31" t="n">
-        <v>15.87282413575048</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>205.9652742745725</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24925,13 +24925,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>123.7062933140805</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>414.3670737191223</v>
       </c>
       <c r="H32" t="n">
         <v>329.8924352648517</v>
@@ -24964,13 +24964,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>91.0942270148646</v>
+        <v>91.09422701486459</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>187.6986308346051</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>218.9999812970856</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24979,13 +24979,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24995,28 +24995,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>5.982352121484894</v>
+        <v>12.40817678588616</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>136.8428928972591</v>
       </c>
       <c r="H33" t="n">
-        <v>107.4004677732277</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>72.16022720352242</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>69.07521525435415</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25064,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25159,13 +25159,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>286.1898429101255</v>
       </c>
       <c r="E35" t="n">
-        <v>163.5455893883661</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>329.8924352648517</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>174.4037110746249</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25216,7 +25216,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25235,22 +25235,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>78.95331466167046</v>
       </c>
       <c r="E36" t="n">
-        <v>12.98877554786526</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>107.4004677732277</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>72.16022720352242</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>69.07521525435415</v>
       </c>
       <c r="S36" t="n">
         <v>162.3842949358346</v>
@@ -25317,22 +25317,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.571272790944</v>
+        <v>0.9003326543909793</v>
       </c>
       <c r="H37" t="n">
         <v>158.4955995708086</v>
       </c>
       <c r="I37" t="n">
-        <v>130.332161067985</v>
+        <v>142.8287537878153</v>
       </c>
       <c r="J37" t="n">
         <v>63.68592579338139</v>
@@ -25368,7 +25368,7 @@
         <v>226.1522977307185</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2961362709901</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25396,7 +25396,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>12.99412727754418</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>329.8924352648517</v>
       </c>
       <c r="I38" t="n">
-        <v>174.4037110746249</v>
+        <v>18.27325077137414</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,10 +25438,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>91.0942270148646</v>
+        <v>91.09422701486459</v>
       </c>
       <c r="S38" t="n">
-        <v>187.6986308346051</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25450,7 +25450,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25469,13 +25469,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2.987072630982567</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -25484,7 +25484,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.8428928972591</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>107.4004677732277</v>
@@ -25526,10 +25526,10 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>19.50279133572403</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -25538,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>13.38790211098518</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>152.4823858359977</v>
+        <v>167.571272790944</v>
       </c>
       <c r="H40" t="n">
         <v>158.4955995708086</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>142.8287537878153</v>
       </c>
       <c r="J40" t="n">
         <v>63.68592579338139</v>
@@ -25611,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25636,19 +25636,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>334.0074165285519</v>
       </c>
       <c r="F41" t="n">
-        <v>108.6358699598921</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.3670737191223</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>329.8924352648517</v>
       </c>
       <c r="I41" t="n">
-        <v>174.4037110746249</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,22 +25681,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.9999812970856</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2707998041555</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25706,19 +25706,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>148.737688693938</v>
       </c>
       <c r="F42" t="n">
-        <v>70.40214615196727</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -25727,7 +25727,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>72.16022720352242</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25794,16 +25794,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>159.6227942908005</v>
       </c>
       <c r="H43" t="n">
-        <v>19.53375860077873</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>142.8287537878153</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25882,10 +25882,10 @@
         <v>414.3670737191223</v>
       </c>
       <c r="H44" t="n">
-        <v>329.8924352648517</v>
+        <v>266.8817198451634</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>174.4037110746249</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>91.09422701486459</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -25921,19 +25921,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2707998041555</v>
       </c>
       <c r="V44" t="n">
-        <v>2.638218813826029</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25943,19 +25943,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>89.78551763283541</v>
+        <v>1.715714692333478</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -26000,7 +26000,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9084462740043</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.571272790944</v>
+        <v>1.127194719991905</v>
       </c>
       <c r="H46" t="n">
         <v>158.4955995708086</v>
@@ -26079,7 +26079,7 @@
         <v>226.1522977307185</v>
       </c>
       <c r="U46" t="n">
-        <v>119.852058200038</v>
+        <v>286.2961362709901</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>493776.9532238221</v>
+        <v>493776.9532238222</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>493776.9532238221</v>
+        <v>493776.9532238222</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>659849.6592023744</v>
+        <v>659849.6592023745</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>659849.6592023745</v>
+        <v>659849.6592023748</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>659849.6592023745</v>
+        <v>659849.6592023744</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>659849.6592023745</v>
+        <v>659849.6592023744</v>
       </c>
     </row>
     <row r="16">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>157852.6389047657</v>
+        <v>157852.6389047658</v>
       </c>
       <c r="C2" t="n">
-        <v>157852.6389047657</v>
+        <v>157852.6389047658</v>
       </c>
       <c r="D2" t="n">
         <v>157852.6389047658</v>
@@ -26328,10 +26328,10 @@
         <v>168322.7414503684</v>
       </c>
       <c r="G2" t="n">
+        <v>168322.7414503684</v>
+      </c>
+      <c r="H2" t="n">
         <v>168322.7414503685</v>
-      </c>
-      <c r="H2" t="n">
-        <v>168322.7414503684</v>
       </c>
       <c r="I2" t="n">
         <v>229692.9736993707</v>
@@ -26355,7 +26355,7 @@
         <v>229692.9736993707</v>
       </c>
       <c r="P2" t="n">
-        <v>229692.9736993706</v>
+        <v>229692.9736993707</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>38628.88112923564</v>
+        <v>38628.88112923566</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>209917.1901890307</v>
+        <v>209917.1901890308</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910625</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8757.582995213648</v>
+        <v>8757.582995213641</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>42017.42535589615</v>
       </c>
       <c r="C4" t="n">
-        <v>42017.42535589614</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="D4" t="n">
         <v>42017.42535589615</v>
@@ -26438,7 +26438,7 @@
         <v>42169.81622231289</v>
       </c>
       <c r="I4" t="n">
-        <v>43688.53987538235</v>
+        <v>43688.53987538234</v>
       </c>
       <c r="J4" t="n">
         <v>43688.53987538235</v>
@@ -26478,31 +26478,31 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
+        <v>17553.77951678015</v>
+      </c>
+      <c r="F5" t="n">
         <v>17553.77951678014</v>
       </c>
-      <c r="F5" t="n">
-        <v>17553.77951678015</v>
-      </c>
       <c r="G5" t="n">
-        <v>17553.77951678015</v>
+        <v>17553.77951678014</v>
       </c>
       <c r="H5" t="n">
-        <v>17553.77951678015</v>
+        <v>17553.77951678014</v>
       </c>
       <c r="I5" t="n">
-        <v>35829.43444762748</v>
+        <v>35829.43444762749</v>
       </c>
       <c r="J5" t="n">
-        <v>35829.43444762748</v>
+        <v>35829.43444762749</v>
       </c>
       <c r="K5" t="n">
-        <v>35829.43444762748</v>
+        <v>35829.43444762749</v>
       </c>
       <c r="L5" t="n">
-        <v>35829.43444762748</v>
+        <v>35829.43444762749</v>
       </c>
       <c r="M5" t="n">
-        <v>35829.43444762748</v>
+        <v>35829.43444762749</v>
       </c>
       <c r="N5" t="n">
         <v>35829.43444762749</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-25433.49736648027</v>
+        <v>-14437.28780844382</v>
       </c>
       <c r="C6" t="n">
-        <v>55335.93416506742</v>
+        <v>66332.1437231039</v>
       </c>
       <c r="D6" t="n">
-        <v>55335.93416506751</v>
+        <v>66332.1437231039</v>
       </c>
       <c r="E6" t="n">
-        <v>58303.31199071532</v>
+        <v>68803.56932290731</v>
       </c>
       <c r="F6" t="n">
-        <v>96932.19311995081</v>
+        <v>107432.4504521429</v>
       </c>
       <c r="G6" t="n">
-        <v>96932.1931199509</v>
+        <v>107432.4504521429</v>
       </c>
       <c r="H6" t="n">
-        <v>96932.19311995087</v>
+        <v>107432.450452143</v>
       </c>
       <c r="I6" t="n">
-        <v>-68179.13118036267</v>
+        <v>-60585.88484943923</v>
       </c>
       <c r="J6" t="n">
-        <v>78678.11640956171</v>
+        <v>86271.36274048522</v>
       </c>
       <c r="K6" t="n">
-        <v>141738.0590086679</v>
+        <v>149331.3053395915</v>
       </c>
       <c r="L6" t="n">
-        <v>141738.059008668</v>
+        <v>149331.3053395916</v>
       </c>
       <c r="M6" t="n">
-        <v>132980.4760134543</v>
+        <v>140573.7223443779</v>
       </c>
       <c r="N6" t="n">
-        <v>141738.059008668</v>
+        <v>149331.3053395916</v>
       </c>
       <c r="O6" t="n">
-        <v>141738.059008668</v>
+        <v>149331.3053395915</v>
       </c>
       <c r="P6" t="n">
-        <v>141738.0590086679</v>
+        <v>149331.3053395915</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>35.02126071912533</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="F3" t="n">
-        <v>35.02126071912533</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="G3" t="n">
-        <v>35.02126071912533</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="H3" t="n">
-        <v>35.02126071912537</v>
+        <v>35.02126071912529</v>
       </c>
       <c r="I3" t="n">
         <v>232.7463692581683</v>
@@ -26798,28 +26798,28 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
+        <v>276.1565137023555</v>
+      </c>
+      <c r="F4" t="n">
         <v>276.1565137023554</v>
       </c>
-      <c r="F4" t="n">
-        <v>276.1565137023555</v>
-      </c>
       <c r="G4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="H4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="I4" t="n">
         <v>505.8480854901219</v>
       </c>
       <c r="J4" t="n">
-        <v>505.8480854901219</v>
+        <v>505.848085490122</v>
       </c>
       <c r="K4" t="n">
-        <v>505.8480854901219</v>
+        <v>505.848085490122</v>
       </c>
       <c r="L4" t="n">
-        <v>505.8480854901219</v>
+        <v>505.848085490122</v>
       </c>
       <c r="M4" t="n">
         <v>505.8480854901219</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>35.02126071912532</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>197.7251085390429</v>
+        <v>197.725108539043</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>35.14222482469637</v>
+        <v>35.14222482469643</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>229.6915717877664</v>
+        <v>229.6915717877665</v>
       </c>
       <c r="J4" t="n">
         <v>241.0142888776591</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>35.14222482469643</v>
+        <v>35.1422248246964</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>35.14222482469637</v>
+        <v>35.14222482469643</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31758,7 +31758,7 @@
         <v>1.4418552214663</v>
       </c>
       <c r="I11" t="n">
-        <v>5.427767452760119</v>
+        <v>5.42776745276012</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -31770,31 +31770,31 @@
         <v>22.21755819470702</v>
       </c>
       <c r="M11" t="n">
-        <v>24.72131435677232</v>
+        <v>24.72131435677233</v>
       </c>
       <c r="N11" t="n">
         <v>25.12133106840334</v>
       </c>
       <c r="O11" t="n">
-        <v>23.72136057081217</v>
+        <v>23.72136057081218</v>
       </c>
       <c r="P11" t="n">
-        <v>20.24563243411506</v>
+        <v>20.24563243411507</v>
       </c>
       <c r="Q11" t="n">
         <v>15.20362680796963</v>
       </c>
       <c r="R11" t="n">
-        <v>8.843836255870377</v>
+        <v>8.84383625587038</v>
       </c>
       <c r="S11" t="n">
-        <v>3.208229059847512</v>
+        <v>3.208229059847513</v>
       </c>
       <c r="T11" t="n">
-        <v>0.6163037941626978</v>
+        <v>0.616303794162698</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,28 +31831,28 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07532874947132617</v>
+        <v>0.0753287494713262</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7275171330520187</v>
+        <v>0.7275171330520189</v>
       </c>
       <c r="I12" t="n">
-        <v>2.593555628727678</v>
+        <v>2.593555628727679</v>
       </c>
       <c r="J12" t="n">
-        <v>7.116914878779989</v>
+        <v>7.116914878779991</v>
       </c>
       <c r="K12" t="n">
-        <v>12.16394109335884</v>
+        <v>12.16394109335885</v>
       </c>
       <c r="L12" t="n">
         <v>16.35591992358773</v>
       </c>
       <c r="M12" t="n">
-        <v>19.0865870919233</v>
+        <v>19.08658709192331</v>
       </c>
       <c r="N12" t="n">
-        <v>19.59175225833408</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O12" t="n">
         <v>17.92262575689049</v>
@@ -31861,10 +31861,10 @@
         <v>14.38448725650263</v>
       </c>
       <c r="Q12" t="n">
-        <v>9.615648792164375</v>
+        <v>9.615648792164377</v>
       </c>
       <c r="R12" t="n">
-        <v>4.676990252263569</v>
+        <v>4.676990252263571</v>
       </c>
       <c r="S12" t="n">
         <v>1.399198482504676</v>
@@ -31873,7 +31873,7 @@
         <v>0.3036277226497752</v>
       </c>
       <c r="U12" t="n">
-        <v>0.004955838781008304</v>
+        <v>0.004955838781008305</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,37 +31910,37 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06315309310006205</v>
+        <v>0.06315309310006208</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5614884095623703</v>
+        <v>0.5614884095623704</v>
       </c>
       <c r="I13" t="n">
-        <v>1.899185745227321</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J13" t="n">
-        <v>4.464923682174387</v>
+        <v>4.464923682174389</v>
       </c>
       <c r="K13" t="n">
-        <v>7.337241180170845</v>
+        <v>7.337241180170847</v>
       </c>
       <c r="L13" t="n">
-        <v>9.389142586894682</v>
+        <v>9.389142586894685</v>
       </c>
       <c r="M13" t="n">
-        <v>9.899534402948818</v>
+        <v>9.89953440294882</v>
       </c>
       <c r="N13" t="n">
-        <v>9.664145601394049</v>
+        <v>9.664145601394052</v>
       </c>
       <c r="O13" t="n">
-        <v>8.926402650179684</v>
+        <v>8.926402650179687</v>
       </c>
       <c r="P13" t="n">
-        <v>7.638079550938412</v>
+        <v>7.638079550938414</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.288210368587925</v>
+        <v>5.288210368587926</v>
       </c>
       <c r="R13" t="n">
         <v>2.839592713390063</v>
@@ -31949,10 +31949,10 @@
         <v>1.100586177025627</v>
       </c>
       <c r="T13" t="n">
-        <v>0.2698359432457196</v>
+        <v>0.2698359432457197</v>
       </c>
       <c r="U13" t="n">
-        <v>0.003444714169094298</v>
+        <v>0.003444714169094299</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,7 +31995,7 @@
         <v>1.4418552214663</v>
       </c>
       <c r="I14" t="n">
-        <v>5.427767452760119</v>
+        <v>5.42776745276012</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -32007,28 +32007,28 @@
         <v>22.21755819470702</v>
       </c>
       <c r="M14" t="n">
-        <v>24.72131435677232</v>
+        <v>24.72131435677233</v>
       </c>
       <c r="N14" t="n">
         <v>25.12133106840334</v>
       </c>
       <c r="O14" t="n">
-        <v>23.72136057081217</v>
+        <v>23.72136057081218</v>
       </c>
       <c r="P14" t="n">
-        <v>20.24563243411506</v>
+        <v>20.24563243411507</v>
       </c>
       <c r="Q14" t="n">
         <v>15.20362680796963</v>
       </c>
       <c r="R14" t="n">
-        <v>8.843836255870379</v>
+        <v>8.84383625587038</v>
       </c>
       <c r="S14" t="n">
-        <v>3.208229059847512</v>
+        <v>3.208229059847513</v>
       </c>
       <c r="T14" t="n">
-        <v>0.6163037941626979</v>
+        <v>0.616303794162698</v>
       </c>
       <c r="U14" t="n">
         <v>0.01126311902524633</v>
@@ -32068,25 +32068,25 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.07532874947132619</v>
+        <v>0.0753287494713262</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7275171330520188</v>
+        <v>0.7275171330520189</v>
       </c>
       <c r="I15" t="n">
-        <v>2.593555628727678</v>
+        <v>2.593555628727679</v>
       </c>
       <c r="J15" t="n">
-        <v>7.11691487877999</v>
+        <v>7.116914878779991</v>
       </c>
       <c r="K15" t="n">
-        <v>12.16394109335884</v>
+        <v>12.16394109335885</v>
       </c>
       <c r="L15" t="n">
         <v>16.35591992358773</v>
       </c>
       <c r="M15" t="n">
-        <v>19.0865870919233</v>
+        <v>19.08658709192331</v>
       </c>
       <c r="N15" t="n">
         <v>19.59175225833409</v>
@@ -32098,10 +32098,10 @@
         <v>14.38448725650263</v>
       </c>
       <c r="Q15" t="n">
-        <v>9.615648792164375</v>
+        <v>9.615648792164377</v>
       </c>
       <c r="R15" t="n">
-        <v>4.676990252263569</v>
+        <v>4.676990252263571</v>
       </c>
       <c r="S15" t="n">
         <v>1.399198482504676</v>
@@ -32110,7 +32110,7 @@
         <v>0.3036277226497752</v>
       </c>
       <c r="U15" t="n">
-        <v>0.004955838781008304</v>
+        <v>0.004955838781008305</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,37 +32147,37 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.06315309310006206</v>
+        <v>0.06315309310006208</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5614884095623703</v>
+        <v>0.5614884095623704</v>
       </c>
       <c r="I16" t="n">
         <v>1.899185745227322</v>
       </c>
       <c r="J16" t="n">
-        <v>4.464923682174388</v>
+        <v>4.464923682174389</v>
       </c>
       <c r="K16" t="n">
-        <v>7.337241180170845</v>
+        <v>7.337241180170847</v>
       </c>
       <c r="L16" t="n">
-        <v>9.389142586894684</v>
+        <v>9.389142586894685</v>
       </c>
       <c r="M16" t="n">
-        <v>9.899534402948818</v>
+        <v>9.89953440294882</v>
       </c>
       <c r="N16" t="n">
-        <v>9.664145601394049</v>
+        <v>9.664145601394052</v>
       </c>
       <c r="O16" t="n">
-        <v>8.926402650179686</v>
+        <v>8.926402650179687</v>
       </c>
       <c r="P16" t="n">
-        <v>7.638079550938413</v>
+        <v>7.638079550938414</v>
       </c>
       <c r="Q16" t="n">
-        <v>5.288210368587925</v>
+        <v>5.288210368587926</v>
       </c>
       <c r="R16" t="n">
         <v>2.839592713390063</v>
@@ -32186,10 +32186,10 @@
         <v>1.100586177025627</v>
       </c>
       <c r="T16" t="n">
-        <v>0.2698359432457196</v>
+        <v>0.2698359432457197</v>
       </c>
       <c r="U16" t="n">
-        <v>0.003444714169094298</v>
+        <v>0.003444714169094299</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1407889878155791</v>
+        <v>0.140788987815579</v>
       </c>
       <c r="H17" t="n">
-        <v>1.4418552214663</v>
+        <v>1.441855221466299</v>
       </c>
       <c r="I17" t="n">
-        <v>5.427767452760119</v>
+        <v>5.427767452760113</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>11.94928935461251</v>
       </c>
       <c r="K17" t="n">
-        <v>17.90888720884599</v>
+        <v>17.90888720884597</v>
       </c>
       <c r="L17" t="n">
-        <v>22.21755819470702</v>
+        <v>22.217558194707</v>
       </c>
       <c r="M17" t="n">
-        <v>24.72131435677232</v>
+        <v>24.7213143567723</v>
       </c>
       <c r="N17" t="n">
-        <v>25.12133106840334</v>
+        <v>25.12133106840331</v>
       </c>
       <c r="O17" t="n">
-        <v>23.72136057081217</v>
+        <v>23.72136057081215</v>
       </c>
       <c r="P17" t="n">
-        <v>20.24563243411506</v>
+        <v>20.24563243411504</v>
       </c>
       <c r="Q17" t="n">
-        <v>15.20362680796963</v>
+        <v>15.20362680796961</v>
       </c>
       <c r="R17" t="n">
-        <v>8.843836255870379</v>
+        <v>8.84383625587037</v>
       </c>
       <c r="S17" t="n">
-        <v>3.208229059847512</v>
+        <v>3.208229059847509</v>
       </c>
       <c r="T17" t="n">
-        <v>0.6163037941626979</v>
+        <v>0.6163037941626972</v>
       </c>
       <c r="U17" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.07532874947132619</v>
+        <v>0.0753287494713261</v>
       </c>
       <c r="H18" t="n">
-        <v>0.7275171330520188</v>
+        <v>0.727517133052018</v>
       </c>
       <c r="I18" t="n">
-        <v>2.593555628727678</v>
+        <v>2.593555628727676</v>
       </c>
       <c r="J18" t="n">
-        <v>7.11691487877999</v>
+        <v>7.116914878779982</v>
       </c>
       <c r="K18" t="n">
-        <v>12.16394109335884</v>
+        <v>12.16394109335883</v>
       </c>
       <c r="L18" t="n">
-        <v>16.35591992358773</v>
+        <v>16.35591992358772</v>
       </c>
       <c r="M18" t="n">
-        <v>19.0865870919233</v>
+        <v>19.08658709192328</v>
       </c>
       <c r="N18" t="n">
-        <v>19.59175225833409</v>
+        <v>19.59175225833406</v>
       </c>
       <c r="O18" t="n">
-        <v>17.92262575689049</v>
+        <v>17.92262575689047</v>
       </c>
       <c r="P18" t="n">
-        <v>14.38448725650263</v>
+        <v>14.38448725650261</v>
       </c>
       <c r="Q18" t="n">
-        <v>9.615648792164375</v>
+        <v>9.615648792164365</v>
       </c>
       <c r="R18" t="n">
-        <v>4.676990252263569</v>
+        <v>4.676990252263565</v>
       </c>
       <c r="S18" t="n">
-        <v>1.399198482504676</v>
+        <v>1.399198482504675</v>
       </c>
       <c r="T18" t="n">
-        <v>0.3036277226497752</v>
+        <v>0.3036277226497748</v>
       </c>
       <c r="U18" t="n">
-        <v>0.004955838781008304</v>
+        <v>0.004955838781008299</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06315309310006206</v>
+        <v>0.06315309310006199</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5614884095623703</v>
+        <v>0.5614884095623698</v>
       </c>
       <c r="I19" t="n">
-        <v>1.899185745227322</v>
+        <v>1.89918574522732</v>
       </c>
       <c r="J19" t="n">
-        <v>4.464923682174388</v>
+        <v>4.464923682174383</v>
       </c>
       <c r="K19" t="n">
-        <v>7.337241180170845</v>
+        <v>7.337241180170838</v>
       </c>
       <c r="L19" t="n">
-        <v>9.389142586894684</v>
+        <v>9.389142586894673</v>
       </c>
       <c r="M19" t="n">
-        <v>9.899534402948818</v>
+        <v>9.899534402948808</v>
       </c>
       <c r="N19" t="n">
-        <v>9.664145601394049</v>
+        <v>9.66414560139404</v>
       </c>
       <c r="O19" t="n">
-        <v>8.926402650179686</v>
+        <v>8.926402650179675</v>
       </c>
       <c r="P19" t="n">
-        <v>7.638079550938413</v>
+        <v>7.638079550938405</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.288210368587925</v>
+        <v>5.28821036858792</v>
       </c>
       <c r="R19" t="n">
-        <v>2.839592713390063</v>
+        <v>2.83959271339006</v>
       </c>
       <c r="S19" t="n">
-        <v>1.100586177025627</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T19" t="n">
-        <v>0.2698359432457196</v>
+        <v>0.2698359432457194</v>
       </c>
       <c r="U19" t="n">
-        <v>0.003444714169094298</v>
+        <v>0.003444714169094295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1407889878155792</v>
+        <v>0.140788987815579</v>
       </c>
       <c r="H20" t="n">
-        <v>1.441855221466301</v>
+        <v>1.441855221466299</v>
       </c>
       <c r="I20" t="n">
-        <v>5.427767452760125</v>
+        <v>5.427767452760113</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461253</v>
+        <v>11.94928935461251</v>
       </c>
       <c r="K20" t="n">
-        <v>17.908887208846</v>
+        <v>17.90888720884597</v>
       </c>
       <c r="L20" t="n">
-        <v>22.21755819470704</v>
+        <v>22.217558194707</v>
       </c>
       <c r="M20" t="n">
-        <v>24.72131435677235</v>
+        <v>24.7213143567723</v>
       </c>
       <c r="N20" t="n">
-        <v>25.12133106840336</v>
+        <v>25.12133106840331</v>
       </c>
       <c r="O20" t="n">
-        <v>23.7213605708122</v>
+        <v>23.72136057081215</v>
       </c>
       <c r="P20" t="n">
-        <v>20.24563243411508</v>
+        <v>20.24563243411504</v>
       </c>
       <c r="Q20" t="n">
-        <v>15.20362680796964</v>
+        <v>15.20362680796961</v>
       </c>
       <c r="R20" t="n">
-        <v>8.843836255870388</v>
+        <v>8.84383625587037</v>
       </c>
       <c r="S20" t="n">
-        <v>3.208229059847516</v>
+        <v>3.208229059847509</v>
       </c>
       <c r="T20" t="n">
-        <v>0.6163037941626985</v>
+        <v>0.6163037941626972</v>
       </c>
       <c r="U20" t="n">
-        <v>0.01126311902524634</v>
+        <v>0.01126311902524632</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.07532874947132626</v>
+        <v>0.0753287494713261</v>
       </c>
       <c r="H21" t="n">
-        <v>0.7275171330520195</v>
+        <v>0.727517133052018</v>
       </c>
       <c r="I21" t="n">
-        <v>2.593555628727681</v>
+        <v>2.593555628727676</v>
       </c>
       <c r="J21" t="n">
-        <v>7.116914878779997</v>
+        <v>7.116914878779982</v>
       </c>
       <c r="K21" t="n">
-        <v>12.16394109335886</v>
+        <v>12.16394109335883</v>
       </c>
       <c r="L21" t="n">
-        <v>16.35591992358775</v>
+        <v>16.35591992358772</v>
       </c>
       <c r="M21" t="n">
-        <v>19.08658709192332</v>
+        <v>19.08658709192328</v>
       </c>
       <c r="N21" t="n">
-        <v>19.5917522583341</v>
+        <v>19.59175225833406</v>
       </c>
       <c r="O21" t="n">
-        <v>17.92262575689051</v>
+        <v>17.92262575689047</v>
       </c>
       <c r="P21" t="n">
-        <v>14.38448725650264</v>
+        <v>14.38448725650261</v>
       </c>
       <c r="Q21" t="n">
-        <v>9.615648792164384</v>
+        <v>9.615648792164365</v>
       </c>
       <c r="R21" t="n">
-        <v>4.676990252263574</v>
+        <v>4.676990252263565</v>
       </c>
       <c r="S21" t="n">
-        <v>1.399198482504678</v>
+        <v>1.399198482504675</v>
       </c>
       <c r="T21" t="n">
-        <v>0.3036277226497754</v>
+        <v>0.3036277226497748</v>
       </c>
       <c r="U21" t="n">
-        <v>0.004955838781008308</v>
+        <v>0.004955838781008299</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06315309310006213</v>
+        <v>0.06315309310006199</v>
       </c>
       <c r="H22" t="n">
-        <v>0.561488409562371</v>
+        <v>0.5614884095623698</v>
       </c>
       <c r="I22" t="n">
-        <v>1.899185745227324</v>
+        <v>1.89918574522732</v>
       </c>
       <c r="J22" t="n">
-        <v>4.464923682174392</v>
+        <v>4.464923682174383</v>
       </c>
       <c r="K22" t="n">
-        <v>7.337241180170853</v>
+        <v>7.337241180170838</v>
       </c>
       <c r="L22" t="n">
-        <v>9.389142586894692</v>
+        <v>9.389142586894673</v>
       </c>
       <c r="M22" t="n">
-        <v>9.899534402948829</v>
+        <v>9.899534402948808</v>
       </c>
       <c r="N22" t="n">
-        <v>9.664145601394059</v>
+        <v>9.66414560139404</v>
       </c>
       <c r="O22" t="n">
-        <v>8.926402650179694</v>
+        <v>8.926402650179675</v>
       </c>
       <c r="P22" t="n">
-        <v>7.638079550938421</v>
+        <v>7.638079550938405</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.28821036858793</v>
+        <v>5.28821036858792</v>
       </c>
       <c r="R22" t="n">
-        <v>2.839592713390065</v>
+        <v>2.83959271339006</v>
       </c>
       <c r="S22" t="n">
-        <v>1.100586177025628</v>
+        <v>1.100586177025626</v>
       </c>
       <c r="T22" t="n">
-        <v>0.2698359432457199</v>
+        <v>0.2698359432457194</v>
       </c>
       <c r="U22" t="n">
-        <v>0.003444714169094302</v>
+        <v>0.003444714169094295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,10 +32700,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9356637960127362</v>
+        <v>0.9356637960127363</v>
       </c>
       <c r="H23" t="n">
-        <v>9.582366850915436</v>
+        <v>9.582366850915438</v>
       </c>
       <c r="I23" t="n">
         <v>36.07217849578105</v>
@@ -32724,22 +32724,22 @@
         <v>166.9528302820427</v>
       </c>
       <c r="O23" t="n">
-        <v>157.648823410441</v>
+        <v>157.6488234104411</v>
       </c>
       <c r="P23" t="n">
         <v>134.5496234463766</v>
       </c>
       <c r="Q23" t="n">
-        <v>101.0411637516704</v>
+        <v>101.0411637516705</v>
       </c>
       <c r="R23" t="n">
-        <v>58.77489092628509</v>
+        <v>58.7748909262851</v>
       </c>
       <c r="S23" t="n">
         <v>21.32143875164025</v>
       </c>
       <c r="T23" t="n">
-        <v>4.095868267045755</v>
+        <v>4.095868267045756</v>
       </c>
       <c r="U23" t="n">
         <v>0.07485310368101888</v>
@@ -32791,7 +32791,7 @@
         <v>47.29801453009627</v>
       </c>
       <c r="K24" t="n">
-        <v>80.8398403488489</v>
+        <v>80.83984034884891</v>
       </c>
       <c r="L24" t="n">
         <v>108.6991416049587</v>
@@ -32806,7 +32806,7 @@
         <v>119.1112480485647</v>
       </c>
       <c r="P24" t="n">
-        <v>95.59727759209559</v>
+        <v>95.59727759209561</v>
       </c>
       <c r="Q24" t="n">
         <v>63.90424840462011</v>
@@ -32815,7 +32815,7 @@
         <v>31.08261889828898</v>
       </c>
       <c r="S24" t="n">
-        <v>9.298876168003227</v>
+        <v>9.298876168003229</v>
       </c>
       <c r="T24" t="n">
         <v>2.017867107059025</v>
@@ -32864,16 +32864,16 @@
         <v>3.731572936630963</v>
       </c>
       <c r="I25" t="n">
-        <v>12.62172113944296</v>
+        <v>12.62172113944297</v>
       </c>
       <c r="J25" t="n">
-        <v>29.67325432329138</v>
+        <v>29.67325432329139</v>
       </c>
       <c r="K25" t="n">
-        <v>48.76227211671131</v>
+        <v>48.76227211671132</v>
       </c>
       <c r="L25" t="n">
-        <v>62.39892004668991</v>
+        <v>62.39892004668992</v>
       </c>
       <c r="M25" t="n">
         <v>65.79091221505894</v>
@@ -32882,25 +32882,25 @@
         <v>64.22655137250409</v>
       </c>
       <c r="O25" t="n">
-        <v>59.32361556108199</v>
+        <v>59.323615561082</v>
       </c>
       <c r="P25" t="n">
         <v>50.76160158378147</v>
       </c>
       <c r="Q25" t="n">
-        <v>35.14470175798341</v>
+        <v>35.14470175798342</v>
       </c>
       <c r="R25" t="n">
         <v>18.8715334811623</v>
       </c>
       <c r="S25" t="n">
-        <v>7.314340817506696</v>
+        <v>7.314340817506697</v>
       </c>
       <c r="T25" t="n">
-        <v>1.793291697562935</v>
+        <v>1.793291697562936</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02289308550080346</v>
+        <v>0.02289308550080347</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,10 +32937,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9356637960127362</v>
+        <v>0.9356637960127363</v>
       </c>
       <c r="H26" t="n">
-        <v>9.582366850915436</v>
+        <v>9.582366850915438</v>
       </c>
       <c r="I26" t="n">
         <v>36.07217849578105</v>
@@ -32961,22 +32961,22 @@
         <v>166.9528302820427</v>
       </c>
       <c r="O26" t="n">
-        <v>157.648823410441</v>
+        <v>157.6488234104411</v>
       </c>
       <c r="P26" t="n">
         <v>134.5496234463766</v>
       </c>
       <c r="Q26" t="n">
-        <v>101.0411637516704</v>
+        <v>101.0411637516705</v>
       </c>
       <c r="R26" t="n">
-        <v>58.77489092628509</v>
+        <v>58.7748909262851</v>
       </c>
       <c r="S26" t="n">
         <v>21.32143875164025</v>
       </c>
       <c r="T26" t="n">
-        <v>4.095868267045755</v>
+        <v>4.095868267045756</v>
       </c>
       <c r="U26" t="n">
         <v>0.07485310368101888</v>
@@ -33028,7 +33028,7 @@
         <v>47.29801453009627</v>
       </c>
       <c r="K27" t="n">
-        <v>80.8398403488489</v>
+        <v>80.83984034884891</v>
       </c>
       <c r="L27" t="n">
         <v>108.6991416049587</v>
@@ -33043,7 +33043,7 @@
         <v>119.1112480485647</v>
       </c>
       <c r="P27" t="n">
-        <v>95.59727759209559</v>
+        <v>95.59727759209561</v>
       </c>
       <c r="Q27" t="n">
         <v>63.90424840462011</v>
@@ -33052,7 +33052,7 @@
         <v>31.08261889828898</v>
       </c>
       <c r="S27" t="n">
-        <v>9.298876168003227</v>
+        <v>9.298876168003229</v>
       </c>
       <c r="T27" t="n">
         <v>2.017867107059025</v>
@@ -33101,16 +33101,16 @@
         <v>3.731572936630963</v>
       </c>
       <c r="I28" t="n">
-        <v>12.62172113944296</v>
+        <v>12.62172113944297</v>
       </c>
       <c r="J28" t="n">
-        <v>29.67325432329138</v>
+        <v>29.67325432329139</v>
       </c>
       <c r="K28" t="n">
-        <v>48.76227211671131</v>
+        <v>48.76227211671132</v>
       </c>
       <c r="L28" t="n">
-        <v>62.39892004668991</v>
+        <v>62.39892004668992</v>
       </c>
       <c r="M28" t="n">
         <v>65.79091221505894</v>
@@ -33119,25 +33119,25 @@
         <v>64.22655137250409</v>
       </c>
       <c r="O28" t="n">
-        <v>59.32361556108199</v>
+        <v>59.323615561082</v>
       </c>
       <c r="P28" t="n">
         <v>50.76160158378147</v>
       </c>
       <c r="Q28" t="n">
-        <v>35.14470175798341</v>
+        <v>35.14470175798342</v>
       </c>
       <c r="R28" t="n">
         <v>18.8715334811623</v>
       </c>
       <c r="S28" t="n">
-        <v>7.314340817506696</v>
+        <v>7.314340817506697</v>
       </c>
       <c r="T28" t="n">
-        <v>1.793291697562935</v>
+        <v>1.793291697562936</v>
       </c>
       <c r="U28" t="n">
-        <v>0.02289308550080346</v>
+        <v>0.02289308550080347</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,10 +33174,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9356637960127362</v>
+        <v>0.9356637960127363</v>
       </c>
       <c r="H29" t="n">
-        <v>9.582366850915436</v>
+        <v>9.582366850915438</v>
       </c>
       <c r="I29" t="n">
         <v>36.07217849578105</v>
@@ -33198,22 +33198,22 @@
         <v>166.9528302820427</v>
       </c>
       <c r="O29" t="n">
-        <v>157.648823410441</v>
+        <v>157.6488234104411</v>
       </c>
       <c r="P29" t="n">
         <v>134.5496234463766</v>
       </c>
       <c r="Q29" t="n">
-        <v>101.0411637516704</v>
+        <v>101.0411637516705</v>
       </c>
       <c r="R29" t="n">
-        <v>58.77489092628509</v>
+        <v>58.7748909262851</v>
       </c>
       <c r="S29" t="n">
         <v>21.32143875164025</v>
       </c>
       <c r="T29" t="n">
-        <v>4.095868267045755</v>
+        <v>4.095868267045756</v>
       </c>
       <c r="U29" t="n">
         <v>0.07485310368101888</v>
@@ -33265,7 +33265,7 @@
         <v>47.29801453009627</v>
       </c>
       <c r="K30" t="n">
-        <v>80.8398403488489</v>
+        <v>80.83984034884891</v>
       </c>
       <c r="L30" t="n">
         <v>108.6991416049587</v>
@@ -33280,7 +33280,7 @@
         <v>119.1112480485647</v>
       </c>
       <c r="P30" t="n">
-        <v>95.59727759209559</v>
+        <v>95.59727759209561</v>
       </c>
       <c r="Q30" t="n">
         <v>63.90424840462011</v>
@@ -33289,7 +33289,7 @@
         <v>31.08261889828898</v>
       </c>
       <c r="S30" t="n">
-        <v>9.298876168003227</v>
+        <v>9.298876168003229</v>
       </c>
       <c r="T30" t="n">
         <v>2.017867107059025</v>
@@ -33338,16 +33338,16 @@
         <v>3.731572936630963</v>
       </c>
       <c r="I31" t="n">
-        <v>12.62172113944296</v>
+        <v>12.62172113944297</v>
       </c>
       <c r="J31" t="n">
-        <v>29.67325432329138</v>
+        <v>29.67325432329139</v>
       </c>
       <c r="K31" t="n">
-        <v>48.76227211671131</v>
+        <v>48.76227211671132</v>
       </c>
       <c r="L31" t="n">
-        <v>62.39892004668991</v>
+        <v>62.39892004668992</v>
       </c>
       <c r="M31" t="n">
         <v>65.79091221505894</v>
@@ -33356,25 +33356,25 @@
         <v>64.22655137250409</v>
       </c>
       <c r="O31" t="n">
-        <v>59.32361556108199</v>
+        <v>59.323615561082</v>
       </c>
       <c r="P31" t="n">
         <v>50.76160158378147</v>
       </c>
       <c r="Q31" t="n">
-        <v>35.14470175798341</v>
+        <v>35.14470175798342</v>
       </c>
       <c r="R31" t="n">
         <v>18.8715334811623</v>
       </c>
       <c r="S31" t="n">
-        <v>7.314340817506696</v>
+        <v>7.314340817506697</v>
       </c>
       <c r="T31" t="n">
-        <v>1.793291697562935</v>
+        <v>1.793291697562936</v>
       </c>
       <c r="U31" t="n">
-        <v>0.02289308550080346</v>
+        <v>0.02289308550080347</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,10 +33411,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9356637960127362</v>
+        <v>0.9356637960127363</v>
       </c>
       <c r="H32" t="n">
-        <v>9.582366850915436</v>
+        <v>9.582366850915438</v>
       </c>
       <c r="I32" t="n">
         <v>36.07217849578105</v>
@@ -33435,22 +33435,22 @@
         <v>166.9528302820427</v>
       </c>
       <c r="O32" t="n">
-        <v>157.648823410441</v>
+        <v>157.6488234104411</v>
       </c>
       <c r="P32" t="n">
         <v>134.5496234463766</v>
       </c>
       <c r="Q32" t="n">
-        <v>101.0411637516704</v>
+        <v>101.0411637516705</v>
       </c>
       <c r="R32" t="n">
-        <v>58.77489092628509</v>
+        <v>58.7748909262851</v>
       </c>
       <c r="S32" t="n">
         <v>21.32143875164025</v>
       </c>
       <c r="T32" t="n">
-        <v>4.095868267045755</v>
+        <v>4.095868267045756</v>
       </c>
       <c r="U32" t="n">
         <v>0.07485310368101888</v>
@@ -33502,7 +33502,7 @@
         <v>47.29801453009627</v>
       </c>
       <c r="K33" t="n">
-        <v>80.8398403488489</v>
+        <v>80.83984034884891</v>
       </c>
       <c r="L33" t="n">
         <v>108.6991416049587</v>
@@ -33517,7 +33517,7 @@
         <v>119.1112480485647</v>
       </c>
       <c r="P33" t="n">
-        <v>95.59727759209559</v>
+        <v>95.59727759209561</v>
       </c>
       <c r="Q33" t="n">
         <v>63.90424840462011</v>
@@ -33526,7 +33526,7 @@
         <v>31.08261889828898</v>
       </c>
       <c r="S33" t="n">
-        <v>9.298876168003227</v>
+        <v>9.298876168003229</v>
       </c>
       <c r="T33" t="n">
         <v>2.017867107059025</v>
@@ -33575,16 +33575,16 @@
         <v>3.731572936630963</v>
       </c>
       <c r="I34" t="n">
-        <v>12.62172113944296</v>
+        <v>12.62172113944297</v>
       </c>
       <c r="J34" t="n">
-        <v>29.67325432329138</v>
+        <v>29.67325432329139</v>
       </c>
       <c r="K34" t="n">
-        <v>48.76227211671131</v>
+        <v>48.76227211671132</v>
       </c>
       <c r="L34" t="n">
-        <v>62.39892004668991</v>
+        <v>62.39892004668992</v>
       </c>
       <c r="M34" t="n">
         <v>65.79091221505894</v>
@@ -33593,25 +33593,25 @@
         <v>64.22655137250409</v>
       </c>
       <c r="O34" t="n">
-        <v>59.32361556108199</v>
+        <v>59.323615561082</v>
       </c>
       <c r="P34" t="n">
         <v>50.76160158378147</v>
       </c>
       <c r="Q34" t="n">
-        <v>35.14470175798341</v>
+        <v>35.14470175798342</v>
       </c>
       <c r="R34" t="n">
         <v>18.8715334811623</v>
       </c>
       <c r="S34" t="n">
-        <v>7.314340817506696</v>
+        <v>7.314340817506697</v>
       </c>
       <c r="T34" t="n">
-        <v>1.793291697562935</v>
+        <v>1.793291697562936</v>
       </c>
       <c r="U34" t="n">
-        <v>0.02289308550080346</v>
+        <v>0.02289308550080347</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,10 +33648,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9356637960127362</v>
+        <v>0.9356637960127363</v>
       </c>
       <c r="H35" t="n">
-        <v>9.582366850915436</v>
+        <v>9.582366850915438</v>
       </c>
       <c r="I35" t="n">
         <v>36.07217849578105</v>
@@ -33672,22 +33672,22 @@
         <v>166.9528302820427</v>
       </c>
       <c r="O35" t="n">
-        <v>157.648823410441</v>
+        <v>157.6488234104411</v>
       </c>
       <c r="P35" t="n">
         <v>134.5496234463766</v>
       </c>
       <c r="Q35" t="n">
-        <v>101.0411637516704</v>
+        <v>101.0411637516705</v>
       </c>
       <c r="R35" t="n">
-        <v>58.77489092628509</v>
+        <v>58.7748909262851</v>
       </c>
       <c r="S35" t="n">
         <v>21.32143875164025</v>
       </c>
       <c r="T35" t="n">
-        <v>4.095868267045755</v>
+        <v>4.095868267045756</v>
       </c>
       <c r="U35" t="n">
         <v>0.07485310368101888</v>
@@ -33739,7 +33739,7 @@
         <v>47.29801453009627</v>
       </c>
       <c r="K36" t="n">
-        <v>80.8398403488489</v>
+        <v>80.83984034884891</v>
       </c>
       <c r="L36" t="n">
         <v>108.6991416049587</v>
@@ -33754,7 +33754,7 @@
         <v>119.1112480485647</v>
       </c>
       <c r="P36" t="n">
-        <v>95.59727759209559</v>
+        <v>95.59727759209561</v>
       </c>
       <c r="Q36" t="n">
         <v>63.90424840462011</v>
@@ -33763,7 +33763,7 @@
         <v>31.08261889828898</v>
       </c>
       <c r="S36" t="n">
-        <v>9.298876168003227</v>
+        <v>9.298876168003229</v>
       </c>
       <c r="T36" t="n">
         <v>2.017867107059025</v>
@@ -33812,16 +33812,16 @@
         <v>3.731572936630963</v>
       </c>
       <c r="I37" t="n">
-        <v>12.62172113944296</v>
+        <v>12.62172113944297</v>
       </c>
       <c r="J37" t="n">
-        <v>29.67325432329138</v>
+        <v>29.67325432329139</v>
       </c>
       <c r="K37" t="n">
-        <v>48.76227211671131</v>
+        <v>48.76227211671132</v>
       </c>
       <c r="L37" t="n">
-        <v>62.39892004668991</v>
+        <v>62.39892004668992</v>
       </c>
       <c r="M37" t="n">
         <v>65.79091221505894</v>
@@ -33830,25 +33830,25 @@
         <v>64.22655137250409</v>
       </c>
       <c r="O37" t="n">
-        <v>59.32361556108199</v>
+        <v>59.323615561082</v>
       </c>
       <c r="P37" t="n">
         <v>50.76160158378147</v>
       </c>
       <c r="Q37" t="n">
-        <v>35.14470175798341</v>
+        <v>35.14470175798342</v>
       </c>
       <c r="R37" t="n">
         <v>18.8715334811623</v>
       </c>
       <c r="S37" t="n">
-        <v>7.314340817506696</v>
+        <v>7.314340817506697</v>
       </c>
       <c r="T37" t="n">
-        <v>1.793291697562935</v>
+        <v>1.793291697562936</v>
       </c>
       <c r="U37" t="n">
-        <v>0.02289308550080346</v>
+        <v>0.02289308550080347</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,10 +33885,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9356637960127362</v>
+        <v>0.9356637960127363</v>
       </c>
       <c r="H38" t="n">
-        <v>9.582366850915436</v>
+        <v>9.582366850915438</v>
       </c>
       <c r="I38" t="n">
         <v>36.07217849578105</v>
@@ -33909,22 +33909,22 @@
         <v>166.9528302820427</v>
       </c>
       <c r="O38" t="n">
-        <v>157.648823410441</v>
+        <v>157.6488234104411</v>
       </c>
       <c r="P38" t="n">
         <v>134.5496234463766</v>
       </c>
       <c r="Q38" t="n">
-        <v>101.0411637516704</v>
+        <v>101.0411637516705</v>
       </c>
       <c r="R38" t="n">
-        <v>58.77489092628509</v>
+        <v>58.7748909262851</v>
       </c>
       <c r="S38" t="n">
         <v>21.32143875164025</v>
       </c>
       <c r="T38" t="n">
-        <v>4.095868267045755</v>
+        <v>4.095868267045756</v>
       </c>
       <c r="U38" t="n">
         <v>0.07485310368101888</v>
@@ -33976,7 +33976,7 @@
         <v>47.29801453009627</v>
       </c>
       <c r="K39" t="n">
-        <v>80.8398403488489</v>
+        <v>80.83984034884891</v>
       </c>
       <c r="L39" t="n">
         <v>108.6991416049587</v>
@@ -33991,7 +33991,7 @@
         <v>119.1112480485647</v>
       </c>
       <c r="P39" t="n">
-        <v>95.59727759209559</v>
+        <v>95.59727759209561</v>
       </c>
       <c r="Q39" t="n">
         <v>63.90424840462011</v>
@@ -34000,7 +34000,7 @@
         <v>31.08261889828898</v>
       </c>
       <c r="S39" t="n">
-        <v>9.298876168003227</v>
+        <v>9.298876168003229</v>
       </c>
       <c r="T39" t="n">
         <v>2.017867107059025</v>
@@ -34049,16 +34049,16 @@
         <v>3.731572936630963</v>
       </c>
       <c r="I40" t="n">
-        <v>12.62172113944296</v>
+        <v>12.62172113944297</v>
       </c>
       <c r="J40" t="n">
-        <v>29.67325432329138</v>
+        <v>29.67325432329139</v>
       </c>
       <c r="K40" t="n">
-        <v>48.76227211671131</v>
+        <v>48.76227211671132</v>
       </c>
       <c r="L40" t="n">
-        <v>62.39892004668991</v>
+        <v>62.39892004668992</v>
       </c>
       <c r="M40" t="n">
         <v>65.79091221505894</v>
@@ -34067,25 +34067,25 @@
         <v>64.22655137250409</v>
       </c>
       <c r="O40" t="n">
-        <v>59.32361556108199</v>
+        <v>59.323615561082</v>
       </c>
       <c r="P40" t="n">
         <v>50.76160158378147</v>
       </c>
       <c r="Q40" t="n">
-        <v>35.14470175798341</v>
+        <v>35.14470175798342</v>
       </c>
       <c r="R40" t="n">
         <v>18.8715334811623</v>
       </c>
       <c r="S40" t="n">
-        <v>7.314340817506696</v>
+        <v>7.314340817506697</v>
       </c>
       <c r="T40" t="n">
-        <v>1.793291697562935</v>
+        <v>1.793291697562936</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02289308550080346</v>
+        <v>0.02289308550080347</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34780,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -34798,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35020,13 +35020,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35035,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="N9" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N9" t="n">
-        <v>161.1784674257276</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35430,7 +35430,7 @@
         <v>110.8113448503282</v>
       </c>
       <c r="Q11" t="n">
-        <v>5.212927593424823</v>
+        <v>5.212927593424828</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>6.370323552522134</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>138.7877391315785</v>
       </c>
       <c r="L12" t="n">
         <v>248.6418854471727</v>
       </c>
       <c r="M12" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>219.7699536912573</v>
+        <v>151.8955562274027</v>
       </c>
       <c r="O12" t="n">
         <v>269.1887005891756</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q12" t="n">
         <v>79.71116244199196</v>
@@ -35579,13 +35579,13 @@
         <v>49.4834113647894</v>
       </c>
       <c r="N13" t="n">
-        <v>53.79631798062264</v>
+        <v>53.79631798062265</v>
       </c>
       <c r="O13" t="n">
         <v>33.51153056421936</v>
       </c>
       <c r="P13" t="n">
-        <v>4.9166388158319</v>
+        <v>4.916638815831902</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35667,7 +35667,7 @@
         <v>110.8113448503282</v>
       </c>
       <c r="Q14" t="n">
-        <v>5.212927593424824</v>
+        <v>5.212927593424828</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>138.7877391315785</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>248.6418854471727</v>
       </c>
       <c r="M15" t="n">
-        <v>158.2658797799248</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="O15" t="n">
         <v>269.1887005891756</v>
       </c>
       <c r="P15" t="n">
-        <v>198.8728484821096</v>
+        <v>23.32460243089367</v>
       </c>
       <c r="Q15" t="n">
-        <v>79.71116244199196</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35816,13 +35816,13 @@
         <v>49.4834113647894</v>
       </c>
       <c r="N16" t="n">
-        <v>53.79631798062264</v>
+        <v>53.79631798062265</v>
       </c>
       <c r="O16" t="n">
         <v>33.51153056421936</v>
       </c>
       <c r="P16" t="n">
-        <v>4.916638815831901</v>
+        <v>4.916638815831902</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35901,10 +35901,10 @@
         <v>174.4233304118708</v>
       </c>
       <c r="P17" t="n">
-        <v>110.8113448503282</v>
+        <v>110.8113448503281</v>
       </c>
       <c r="Q17" t="n">
-        <v>5.212927593424824</v>
+        <v>5.212927593424808</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>6.370323552522133</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35971,16 +35971,16 @@
         <v>248.6418854471727</v>
       </c>
       <c r="M18" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="N18" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="O18" t="n">
-        <v>269.1887005891756</v>
+        <v>269.1887005891755</v>
       </c>
       <c r="P18" t="n">
-        <v>16.95427887837174</v>
+        <v>23.3246024308939</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36047,19 +36047,19 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>36.97916784721082</v>
+        <v>36.97916784721081</v>
       </c>
       <c r="M19" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="N19" t="n">
-        <v>53.79631798062264</v>
+        <v>53.79631798062263</v>
       </c>
       <c r="O19" t="n">
-        <v>33.51153056421936</v>
+        <v>33.51153056421935</v>
       </c>
       <c r="P19" t="n">
-        <v>4.916638815831901</v>
+        <v>4.916638815831893</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36138,10 +36138,10 @@
         <v>174.4233304118708</v>
       </c>
       <c r="P20" t="n">
-        <v>110.8113448503282</v>
+        <v>110.8113448503281</v>
       </c>
       <c r="Q20" t="n">
-        <v>5.21292759342484</v>
+        <v>5.212927593424808</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36208,13 +36208,13 @@
         <v>248.6418854471727</v>
       </c>
       <c r="M21" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="N21" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="O21" t="n">
-        <v>269.1887005891756</v>
+        <v>269.1887005891755</v>
       </c>
       <c r="P21" t="n">
         <v>23.3246024308939</v>
@@ -36284,19 +36284,19 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>36.97916784721083</v>
+        <v>36.97916784721081</v>
       </c>
       <c r="M22" t="n">
-        <v>49.48341136478942</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N22" t="n">
-        <v>53.79631798062265</v>
+        <v>53.79631798062263</v>
       </c>
       <c r="O22" t="n">
-        <v>33.51153056421937</v>
+        <v>33.51153056421935</v>
       </c>
       <c r="P22" t="n">
-        <v>4.916638815831909</v>
+        <v>4.916638815831893</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>329.5495640697432</v>
       </c>
       <c r="M23" t="n">
-        <v>383.4616757871812</v>
+        <v>383.4616757871813</v>
       </c>
       <c r="N23" t="n">
         <v>374.8866910974359</v>
@@ -36378,7 +36378,7 @@
         <v>225.1153358625897</v>
       </c>
       <c r="Q23" t="n">
-        <v>91.05046453712563</v>
+        <v>91.05046453712565</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>46.55142320383841</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>36.33205227497275</v>
+        <v>82.88347547881092</v>
       </c>
       <c r="L24" t="n">
         <v>340.9851071285437</v>
@@ -36603,7 +36603,7 @@
         <v>329.5495640697432</v>
       </c>
       <c r="M26" t="n">
-        <v>383.4616757871812</v>
+        <v>383.4616757871813</v>
       </c>
       <c r="N26" t="n">
         <v>374.8866910974359</v>
@@ -36615,7 +36615,7 @@
         <v>225.1153358625897</v>
       </c>
       <c r="Q26" t="n">
-        <v>91.05046453712545</v>
+        <v>91.05046453712565</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>46.55142320383841</v>
+        <v>46.55142320383842</v>
       </c>
       <c r="K27" t="n">
         <v>207.4636383870685</v>
@@ -36682,10 +36682,10 @@
         <v>340.9851071285437</v>
       </c>
       <c r="M27" t="n">
-        <v>145.2864529071399</v>
+        <v>450.4178010736833</v>
       </c>
       <c r="N27" t="n">
-        <v>478.2046900964478</v>
+        <v>173.0733419299043</v>
       </c>
       <c r="O27" t="n">
         <v>370.3773228808498</v>
@@ -36834,13 +36834,13 @@
         <v>67.46400575222353</v>
       </c>
       <c r="K29" t="n">
-        <v>223.0755051182394</v>
+        <v>223.0755051182396</v>
       </c>
       <c r="L29" t="n">
         <v>329.5495640697432</v>
       </c>
       <c r="M29" t="n">
-        <v>383.4616757871812</v>
+        <v>383.4616757871813</v>
       </c>
       <c r="N29" t="n">
         <v>374.8866910974359</v>
@@ -36852,7 +36852,7 @@
         <v>225.1153358625897</v>
       </c>
       <c r="Q29" t="n">
-        <v>91.05046453712563</v>
+        <v>91.05046453712565</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>46.55142320383841</v>
+        <v>46.55142320383842</v>
       </c>
       <c r="K30" t="n">
         <v>207.4636383870685</v>
@@ -36919,7 +36919,7 @@
         <v>340.9851071285437</v>
       </c>
       <c r="M30" t="n">
-        <v>450.4178010736833</v>
+        <v>145.2864529071398</v>
       </c>
       <c r="N30" t="n">
         <v>478.2046900964478</v>
@@ -36928,10 +36928,10 @@
         <v>370.3773228808498</v>
       </c>
       <c r="P30" t="n">
-        <v>108.9540527056068</v>
+        <v>280.0856388177025</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>133.9997620544477</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>329.5495640697432</v>
       </c>
       <c r="M32" t="n">
-        <v>383.4616757871812</v>
+        <v>383.4616757871813</v>
       </c>
       <c r="N32" t="n">
         <v>374.8866910974359</v>
@@ -37089,7 +37089,7 @@
         <v>225.1153358625897</v>
       </c>
       <c r="Q32" t="n">
-        <v>91.05046453712563</v>
+        <v>91.05046453712565</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>207.4636383870685</v>
       </c>
       <c r="L33" t="n">
         <v>340.9851071285437</v>
@@ -37165,10 +37165,10 @@
         <v>370.3773228808498</v>
       </c>
       <c r="P33" t="n">
-        <v>280.0856388177025</v>
+        <v>155.5054759094453</v>
       </c>
       <c r="Q33" t="n">
-        <v>82.88347547881122</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>329.5495640697432</v>
       </c>
       <c r="M35" t="n">
-        <v>383.4616757871812</v>
+        <v>383.4616757871813</v>
       </c>
       <c r="N35" t="n">
         <v>374.8866910974359</v>
@@ -37326,7 +37326,7 @@
         <v>225.1153358625897</v>
       </c>
       <c r="Q35" t="n">
-        <v>91.05046453712563</v>
+        <v>91.05046453712565</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,16 +37384,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>46.55142320383841</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>207.4636383870685</v>
       </c>
       <c r="L36" t="n">
-        <v>35.85375896200035</v>
+        <v>340.9851071285437</v>
       </c>
       <c r="M36" t="n">
-        <v>450.4178010736833</v>
+        <v>191.8378761109782</v>
       </c>
       <c r="N36" t="n">
         <v>478.2046900964478</v>
@@ -37551,7 +37551,7 @@
         <v>329.5495640697432</v>
       </c>
       <c r="M38" t="n">
-        <v>383.4616757871812</v>
+        <v>383.4616757871813</v>
       </c>
       <c r="N38" t="n">
         <v>374.8866910974359</v>
@@ -37563,7 +37563,7 @@
         <v>225.1153358625897</v>
       </c>
       <c r="Q38" t="n">
-        <v>91.05046453712563</v>
+        <v>91.05046453712565</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>46.55142320383842</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>280.0856388177025</v>
       </c>
       <c r="Q39" t="n">
-        <v>82.88347547881168</v>
+        <v>36.33205227497318</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37870,16 +37870,16 @@
         <v>450.4178010736833</v>
       </c>
       <c r="N42" t="n">
-        <v>173.0733419299043</v>
+        <v>478.2046900964478</v>
       </c>
       <c r="O42" t="n">
         <v>370.3773228808498</v>
       </c>
       <c r="P42" t="n">
-        <v>280.0856388177025</v>
+        <v>108.9540527056066</v>
       </c>
       <c r="Q42" t="n">
-        <v>133.9997620544477</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38095,19 +38095,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>46.55142320383842</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>207.4636383870685</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>340.9851071285437</v>
+        <v>289.8688205529071</v>
       </c>
       <c r="M45" t="n">
         <v>450.4178010736833</v>
       </c>
       <c r="N45" t="n">
-        <v>173.0733419299043</v>
+        <v>478.2046900964478</v>
       </c>
       <c r="O45" t="n">
         <v>370.3773228808498</v>
